--- a/sriramModel-nelson-atypical-patientID_27-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_27-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.26492947178376</v>
+        <v>19.15806746046191</v>
       </c>
       <c r="C2">
-        <v>19.34723122156577</v>
+        <v>19.20142607608824</v>
       </c>
       <c r="D2">
-        <v>19.20375186888836</v>
+        <v>19.23965476262978</v>
       </c>
       <c r="E2">
-        <v>19.18549232048996</v>
+        <v>19.18034687274475</v>
       </c>
       <c r="F2">
-        <v>19.27397099946164</v>
+        <v>19.14836842328375</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.3404552186673</v>
+        <v>19.1235361375982</v>
       </c>
       <c r="C3">
-        <v>19.49431978587345</v>
+        <v>19.20963001622793</v>
       </c>
       <c r="D3">
-        <v>19.21263764997509</v>
+        <v>19.28117390461749</v>
       </c>
       <c r="E3">
-        <v>19.18118459552666</v>
+        <v>19.1669122362328</v>
       </c>
       <c r="F3">
-        <v>19.34937681641075</v>
+        <v>19.10431732463617</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.42488394060224</v>
+        <v>19.09633238891931</v>
       </c>
       <c r="C4">
-        <v>19.6412476064634</v>
+        <v>19.22445720597428</v>
       </c>
       <c r="D4">
-        <v>19.22662366609727</v>
+        <v>19.32452911844296</v>
       </c>
       <c r="E4">
-        <v>19.18690038285257</v>
+        <v>19.1596327983838</v>
       </c>
       <c r="F4">
-        <v>19.4261960920725</v>
+        <v>19.06782117362685</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.51664269409611</v>
+        <v>19.07638611307993</v>
       </c>
       <c r="C5">
-        <v>19.78799369541347</v>
+        <v>19.24575681210348</v>
       </c>
       <c r="D5">
-        <v>19.24567549982757</v>
+        <v>19.36969028520749</v>
       </c>
       <c r="E5">
-        <v>19.20245671497687</v>
+        <v>19.15844705759746</v>
       </c>
       <c r="F5">
-        <v>19.50440768652382</v>
+        <v>19.0388549967536</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.61428404155364</v>
+        <v>19.06363046852107</v>
       </c>
       <c r="C6">
-        <v>19.93453384772074</v>
+        <v>19.27338054989256</v>
       </c>
       <c r="D6">
-        <v>19.26975798175966</v>
+        <v>19.41662651973757</v>
       </c>
       <c r="E6">
-        <v>19.22766294865966</v>
+        <v>19.16329514506694</v>
       </c>
       <c r="F6">
-        <v>19.58399067343427</v>
+        <v>19.01739440352247</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.71648506748346</v>
+        <v>19.05800138821429</v>
       </c>
       <c r="C7">
-        <v>20.08084035278654</v>
+        <v>19.30718216285318</v>
       </c>
       <c r="D7">
-        <v>19.29883506074479</v>
+        <v>19.46530671006111</v>
       </c>
       <c r="E7">
-        <v>19.26232003760042</v>
+        <v>19.17411863636524</v>
       </c>
       <c r="F7">
-        <v>19.66492429703843</v>
+        <v>19.00341549134824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.82204667814264</v>
+        <v>19.0594371723555</v>
       </c>
       <c r="C8">
-        <v>20.2268817204804</v>
+        <v>19.34701729824463</v>
       </c>
       <c r="D8">
-        <v>19.33286969628664</v>
+        <v>19.51569921706253</v>
       </c>
       <c r="E8">
-        <v>19.30621992545309</v>
+        <v>19.19086030833335</v>
       </c>
       <c r="F8">
-        <v>19.74718792657034</v>
+        <v>18.99689467115511</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.92989079455434</v>
+        <v>19.06787814853629</v>
       </c>
       <c r="C9">
-        <v>20.37262213207701</v>
+        <v>19.39274308021025</v>
       </c>
       <c r="D9">
-        <v>19.37182371160154</v>
+        <v>19.56777171451134</v>
       </c>
       <c r="E9">
-        <v>19.35914486308464</v>
+        <v>19.213463930371</v>
       </c>
       <c r="F9">
-        <v>19.83076100871755</v>
+        <v>18.99780846381882</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.03905566172843</v>
+        <v>19.08326628864723</v>
       </c>
       <c r="C10">
-        <v>20.51802109760256</v>
+        <v>19.44421768382485</v>
       </c>
       <c r="D10">
-        <v>19.41565763752727</v>
+        <v>19.6214911847557</v>
       </c>
       <c r="E10">
-        <v>19.42086674884385</v>
+        <v>19.24187404625308</v>
       </c>
       <c r="F10">
-        <v>19.91562301028314</v>
+        <v>19.00613329061462</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.14868999238967</v>
+        <v>19.10554488335938</v>
       </c>
       <c r="C11">
-        <v>20.66303306125641</v>
+        <v>19.50130002683342</v>
       </c>
       <c r="D11">
-        <v>19.46433055111125</v>
+        <v>19.67682385224825</v>
       </c>
       <c r="E11">
-        <v>19.49114663537431</v>
+        <v>19.27603578519061</v>
       </c>
       <c r="F11">
-        <v>20.00175334531835</v>
+        <v>19.02184526139245</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.25804649618702</v>
+        <v>19.13465819430261</v>
       </c>
       <c r="C12">
-        <v>20.80760695034335</v>
+        <v>19.56384935301898</v>
       </c>
       <c r="D12">
-        <v>19.51779991487471</v>
+        <v>19.73373523158988</v>
       </c>
       <c r="E12">
-        <v>19.56973423558566</v>
+        <v>19.31589459139622</v>
       </c>
       <c r="F12">
-        <v>20.08913129563744</v>
+        <v>19.04491987572745</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.36647502100325</v>
+        <v>19.17055114472955</v>
       </c>
       <c r="C13">
-        <v>20.95168562351321</v>
+        <v>19.63172501215363</v>
       </c>
       <c r="D13">
-        <v>19.57602139659107</v>
+        <v>19.79218982523826</v>
       </c>
       <c r="E13">
-        <v>19.65636733108297</v>
+        <v>19.36139596957784</v>
       </c>
       <c r="F13">
-        <v>20.17773592774367</v>
+        <v>19.07533165958973</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.47341463391906</v>
+        <v>19.21316897087964</v>
       </c>
       <c r="C14">
-        <v>21.095205423557</v>
+        <v>19.70478619089358</v>
       </c>
       <c r="D14">
-        <v>19.63894870359508</v>
+        <v>19.85215111758913</v>
       </c>
       <c r="E14">
-        <v>19.75077114992221</v>
+        <v>19.4124851963481</v>
       </c>
       <c r="F14">
-        <v>20.26754599866883</v>
+        <v>19.11305375750121</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.57838555852885</v>
+        <v>19.26245682313697</v>
       </c>
       <c r="C15">
-        <v>21.23809566103482</v>
+        <v>19.78289153620114</v>
       </c>
       <c r="D15">
-        <v>19.70653337799041</v>
+        <v>19.91358154274605</v>
       </c>
       <c r="E15">
-        <v>19.85265792496515</v>
+        <v>19.46910725031278</v>
       </c>
       <c r="F15">
-        <v>20.3585398342051</v>
+        <v>19.1580574585414</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.68098210153483</v>
+        <v>19.31835937179575</v>
       </c>
       <c r="C16">
-        <v>21.38027802587457</v>
+        <v>19.86589848595007</v>
       </c>
       <c r="D16">
-        <v>19.77872443625148</v>
+        <v>19.97644237374065</v>
       </c>
       <c r="E16">
-        <v>19.96172641469606</v>
+        <v>19.53120614127378</v>
       </c>
       <c r="F16">
-        <v>20.45069523072085</v>
+        <v>19.2103116339356</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.78086561060252</v>
+        <v>19.38082039472209</v>
       </c>
       <c r="C17">
-        <v>21.52166600156496</v>
+        <v>19.95366300881965</v>
       </c>
       <c r="D17">
-        <v>19.85546819278893</v>
+        <v>20.040693664532</v>
       </c>
       <c r="E17">
-        <v>20.07766138711518</v>
+        <v>19.59872471665606</v>
       </c>
       <c r="F17">
-        <v>20.54398927336558</v>
+        <v>19.26978207312152</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.87775737016075</v>
+        <v>19.4497823176434</v>
       </c>
       <c r="C18">
-        <v>21.66216417280808</v>
+        <v>20.04603940914761</v>
       </c>
       <c r="D18">
-        <v>19.93670795647228</v>
+        <v>20.10629411112716</v>
       </c>
       <c r="E18">
-        <v>20.2001330384149</v>
+        <v>19.67160425509527</v>
       </c>
       <c r="F18">
-        <v>20.63839824528661</v>
+        <v>19.3364307077874</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.97143186033942</v>
+        <v>19.52518568728016</v>
       </c>
       <c r="C19">
-        <v>21.80166764432964</v>
+        <v>20.14287993293931</v>
       </c>
       <c r="D19">
-        <v>20.022383729388</v>
+        <v>20.17320094181112</v>
       </c>
       <c r="E19">
-        <v>20.3287964041408</v>
+        <v>19.74978390764762</v>
       </c>
       <c r="F19">
-        <v>20.73389739030317</v>
+        <v>19.41021471129303</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.06171065246273</v>
+        <v>19.60696857553708</v>
       </c>
       <c r="C20">
-        <v>21.94006151117288</v>
+        <v>20.2440342617971</v>
       </c>
       <c r="D20">
-        <v>20.1124318493819</v>
+        <v>20.24136978925227</v>
       </c>
       <c r="E20">
-        <v>20.46329073888389</v>
+        <v>19.83320026180902</v>
       </c>
       <c r="F20">
-        <v>20.83046071515733</v>
+        <v>19.49108545819007</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.14845680815288</v>
+        <v>19.69506591082265</v>
       </c>
       <c r="C21">
-        <v>22.07722024936252</v>
+        <v>20.34934901309196</v>
       </c>
       <c r="D21">
-        <v>20.20678456288802</v>
+        <v>20.31075456089115</v>
       </c>
       <c r="E21">
-        <v>20.60323886619736</v>
+        <v>19.92178679585208</v>
       </c>
       <c r="F21">
-        <v>20.92806083311318</v>
+        <v>19.57898732703681</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.23156969950476</v>
+        <v>19.78940872162823</v>
       </c>
       <c r="C22">
-        <v>22.213007157338</v>
+        <v>20.45866727791405</v>
       </c>
       <c r="D22">
-        <v>20.3053695713875</v>
+        <v>20.38130732578423</v>
       </c>
       <c r="E22">
-        <v>20.74824648974166</v>
+        <v>20.01547314201403</v>
       </c>
       <c r="F22">
-        <v>21.02666858303964</v>
+        <v>19.67385632909578</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.31098025562922</v>
+        <v>19.88992327069158</v>
       </c>
       <c r="C23">
-        <v>22.34727381835182</v>
+        <v>20.57182814682895</v>
       </c>
       <c r="D23">
-        <v>20.40810948803971</v>
+        <v>20.45297811164212</v>
       </c>
       <c r="E23">
-        <v>20.89790144065715</v>
+        <v>20.11418427386889</v>
       </c>
       <c r="F23">
-        <v>21.12625288741249</v>
+        <v>19.77561854517252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.38664668601779</v>
+        <v>19.99653005809638</v>
       </c>
       <c r="C24">
-        <v>22.47985963880611</v>
+        <v>20.68866616911581</v>
       </c>
       <c r="D24">
-        <v>20.51492119862123</v>
+        <v>20.52571476124605</v>
       </c>
       <c r="E24">
-        <v>21.05177287088009</v>
+        <v>20.21783975953548</v>
       </c>
       <c r="F24">
-        <v>21.22678032131385</v>
+        <v>19.8841883526274</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.45855066956376</v>
+        <v>20.10914267269042</v>
       </c>
       <c r="C25">
-        <v>22.6105915212398</v>
+        <v>20.80901074488382</v>
       </c>
       <c r="D25">
-        <v>20.62571514593176</v>
+        <v>20.59946273941374</v>
       </c>
       <c r="E25">
-        <v>21.20941039978915</v>
+        <v>20.32635258731948</v>
       </c>
       <c r="F25">
-        <v>21.32821478902609</v>
+        <v>19.99946642469822</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>21.52669394542609</v>
+        <v>20.22766646865016</v>
       </c>
       <c r="C26">
-        <v>22.73928365953074</v>
+        <v>20.93268547265588</v>
       </c>
       <c r="D26">
-        <v>20.74039450923332</v>
+        <v>20.67416496996017</v>
       </c>
       <c r="E26">
-        <v>21.37034321984487</v>
+        <v>20.43962801768773</v>
       </c>
       <c r="F26">
-        <v>21.43051718604092</v>
+        <v>20.1213374850445</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>21.5910952728544</v>
+        <v>20.35199703880086</v>
       </c>
       <c r="C27">
-        <v>22.86573747993118</v>
+        <v>21.05950745500321</v>
       </c>
       <c r="D27">
-        <v>20.85885421147094</v>
+        <v>20.74976161361132</v>
       </c>
       <c r="E27">
-        <v>21.5340791698228</v>
+        <v>20.55756240542752</v>
       </c>
       <c r="F27">
-        <v>21.53364475994461</v>
+        <v>20.24966780217288</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.6517877408238</v>
+        <v>20.48201845150524</v>
       </c>
       <c r="C28">
-        <v>22.98974176612481</v>
+        <v>21.18928654599432</v>
       </c>
       <c r="D28">
-        <v>20.9809796949114</v>
+        <v>20.82618980775511</v>
       </c>
       <c r="E28">
-        <v>21.70010379325173</v>
+        <v>20.68004154823291</v>
       </c>
       <c r="F28">
-        <v>21.63755083203045</v>
+        <v>20.3843025580016</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>21.70881640413224</v>
+        <v>20.61760121462932</v>
       </c>
       <c r="C29">
-        <v>23.11107309736405</v>
+        <v>21.32182452434205</v>
       </c>
       <c r="D29">
-        <v>21.10664550563556</v>
+        <v>20.90338344038756</v>
       </c>
       <c r="E29">
-        <v>21.86787941081002</v>
+        <v>20.8069388985751</v>
       </c>
       <c r="F29">
-        <v>21.74218395900216</v>
+        <v>20.52506272291717</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21.76223621166876</v>
+        <v>20.7585999272243</v>
       </c>
       <c r="C30">
-        <v>23.22949651300344</v>
+        <v>21.45691418471505</v>
       </c>
       <c r="D30">
-        <v>21.23571367779442</v>
+        <v>20.98127285798687</v>
       </c>
       <c r="E30">
-        <v>22.03684425226326</v>
+        <v>20.93811380592792</v>
       </c>
       <c r="F30">
-        <v>21.84748739130765</v>
+        <v>20.67174109691346</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>21.81211019439453</v>
+        <v>20.90485057634518</v>
       </c>
       <c r="C31">
-        <v>23.34476653353564</v>
+        <v>21.59433834290918</v>
       </c>
       <c r="D31">
-        <v>21.36803167044392</v>
+        <v>21.05978466369654</v>
       </c>
       <c r="E31">
-        <v>22.20641169792304</v>
+        <v>21.07340915222455</v>
       </c>
       <c r="F31">
-        <v>21.95339835724372</v>
+        <v>20.82409949924193</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.85850788988865</v>
+        <v>21.05616743354136</v>
       </c>
       <c r="C32">
-        <v>23.45662851888296</v>
+        <v>21.73386874728827</v>
       </c>
       <c r="D32">
-        <v>21.50342987106304</v>
+        <v>21.13884132417711</v>
       </c>
       <c r="E32">
-        <v>22.37596972945174</v>
+        <v>21.21264871111707</v>
       </c>
       <c r="F32">
-        <v>22.05984689848522</v>
+        <v>20.98186474651995</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>21.90150396684479</v>
+        <v>21.2123395031697</v>
       </c>
       <c r="C33">
-        <v>23.5648203966951</v>
+        <v>21.87526488534484</v>
       </c>
       <c r="D33">
-        <v>21.64171873490575</v>
+        <v>21.21836084491263</v>
       </c>
       <c r="E33">
-        <v>22.5448806891553</v>
+        <v>21.35563458098278</v>
       </c>
       <c r="F33">
-        <v>22.16675534222366</v>
+        <v>21.14472427186319</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>21.94117705190635</v>
+        <v>21.37312648042893</v>
       </c>
       <c r="C34">
-        <v>23.6690749644263</v>
+        <v>22.0182726738847</v>
       </c>
       <c r="D34">
-        <v>21.78268482960803</v>
+        <v>21.29825642998252</v>
       </c>
       <c r="E34">
-        <v>22.712481468041</v>
+        <v>21.50214399566932</v>
       </c>
       <c r="F34">
-        <v>22.27403661191505</v>
+        <v>21.31232223074116</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>21.97760871173567</v>
+        <v>21.53825418318995</v>
       </c>
       <c r="C35">
-        <v>23.76912246899178</v>
+        <v>22.16262302290442</v>
       </c>
       <c r="D35">
-        <v>21.92608655931245</v>
+        <v>21.37843605879988</v>
       </c>
       <c r="E35">
-        <v>22.87808436439722</v>
+        <v>21.65192563484463</v>
       </c>
       <c r="F35">
-        <v>22.38159327050831</v>
+        <v>21.48425562658209</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22.01088259641212</v>
+        <v>21.70740941481229</v>
       </c>
       <c r="C36">
-        <v>23.8646936727462</v>
+        <v>22.30803026463943</v>
       </c>
       <c r="D36">
-        <v>22.07164886853111</v>
+        <v>21.45880224616107</v>
       </c>
       <c r="E36">
-        <v>23.04097880082077</v>
+        <v>21.80469614116654</v>
       </c>
       <c r="F36">
-        <v>22.48931597193391</v>
+        <v>21.66006881007169</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22.04108368540204</v>
+        <v>21.88023426350895</v>
       </c>
       <c r="C37">
-        <v>23.95552326517446</v>
+        <v>22.45419044047744</v>
       </c>
       <c r="D37">
-        <v>22.21905664305315</v>
+        <v>21.53925141832135</v>
       </c>
       <c r="E37">
-        <v>23.20043413579868</v>
+        <v>21.96013615512997</v>
       </c>
       <c r="F37">
-        <v>22.59708121340556</v>
+        <v>21.83924992806044</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22.06829768906568</v>
+        <v>22.05631985886806</v>
       </c>
       <c r="C38">
-        <v>24.04135363772107</v>
+        <v>22.60077944080762</v>
       </c>
       <c r="D38">
-        <v>22.36794672600476</v>
+        <v>21.6196735419362</v>
       </c>
       <c r="E38">
-        <v>23.35570383003746</v>
+        <v>22.11788572144238</v>
       </c>
       <c r="F38">
-        <v>22.70475048027621</v>
+        <v>22.02122780256702</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22.09261035723696</v>
+        <v>22.23519964685002</v>
       </c>
       <c r="C39">
-        <v>24.12193904102303</v>
+        <v>22.74745099755367</v>
       </c>
       <c r="D39">
-        <v>22.51789853011355</v>
+        <v>21.6999516469892</v>
       </c>
       <c r="E39">
-        <v>23.50603212951842</v>
+        <v>22.27754027620102</v>
       </c>
       <c r="F39">
-        <v>22.81216654336786</v>
+        <v>22.20536869520976</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22.1141072025487</v>
+        <v>22.4163423192069</v>
       </c>
       <c r="C40">
-        <v>24.1970497242865</v>
+        <v>22.89383453672125</v>
       </c>
       <c r="D40">
-        <v>22.66842310170502</v>
+        <v>21.77996137169366</v>
       </c>
       <c r="E40">
-        <v>23.65066185716704</v>
+        <v>22.43864635198499</v>
       </c>
       <c r="F40">
-        <v>22.91915139921757</v>
+        <v>22.39097393738842</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22.13287311755411</v>
+        <v>22.59914462522815</v>
       </c>
       <c r="C41">
-        <v>24.26647616909862</v>
+        <v>23.03953290949588</v>
       </c>
       <c r="D41">
-        <v>22.81895036062787</v>
+        <v>21.85957055356241</v>
       </c>
       <c r="E41">
-        <v>23.78884495520835</v>
+        <v>22.60069726631205</v>
       </c>
       <c r="F41">
-        <v>23.02550314326772</v>
+        <v>22.57727919896484</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22.14899202032509</v>
+        <v>22.78292438522505</v>
       </c>
       <c r="C42">
-        <v>24.33003319218079</v>
+        <v>23.18412003660985</v>
       </c>
       <c r="D42">
-        <v>22.96881631211436</v>
+        <v>21.93863858454728</v>
       </c>
       <c r="E42">
-        <v>23.91985558022202</v>
+        <v>22.76313013513036</v>
       </c>
       <c r="F42">
-        <v>23.1309927037904</v>
+        <v>22.76345537028201</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22.16254663143092</v>
+        <v>22.96691419941104</v>
       </c>
       <c r="C43">
-        <v>24.38756385324896</v>
+        <v>23.32713852381717</v>
       </c>
       <c r="D43">
-        <v>23.11725012596849</v>
+        <v>22.01701602821334</v>
       </c>
       <c r="E43">
-        <v>24.04300557625823</v>
+        <v>22.92532196379302</v>
       </c>
       <c r="F43">
-        <v>23.23535990688807</v>
+        <v>22.94861124328625</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22.17361826967434</v>
+        <v>23.15025647609025</v>
       </c>
       <c r="C44">
-        <v>24.43894280380885</v>
+        <v>23.46809733873518</v>
       </c>
       <c r="D44">
-        <v>23.26336364455046</v>
+        <v>22.09454416008845</v>
       </c>
       <c r="E44">
-        <v>24.15766157726421</v>
+        <v>23.08658988101312</v>
       </c>
       <c r="F44">
-        <v>23.33830908645609</v>
+        <v>23.13179863023246</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22.18228666834965</v>
+        <v>23.33200063751132</v>
       </c>
       <c r="C45">
-        <v>24.48407907281363</v>
+        <v>23.60646968370568</v>
       </c>
       <c r="D45">
-        <v>23.40614664743715</v>
+        <v>22.17105468219463</v>
       </c>
       <c r="E45">
-        <v>24.26326309370767</v>
+        <v>23.24619108503144</v>
       </c>
       <c r="F45">
-        <v>23.43950443237795</v>
+        <v>23.31202021249721</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22.1886298253757</v>
+        <v>23.51110351768744</v>
       </c>
       <c r="C46">
-        <v>24.52291811322841</v>
+        <v>23.7416912610236</v>
       </c>
       <c r="D46">
-        <v>23.54447220148872</v>
+        <v>22.24636933081721</v>
       </c>
       <c r="E46">
-        <v>24.35934023390617</v>
+        <v>23.40332536342427</v>
       </c>
       <c r="F46">
-        <v>23.53856512783778</v>
+        <v>23.48824041069703</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22.1927239424204</v>
+        <v>23.68643398678566</v>
       </c>
       <c r="C47">
-        <v>24.55544310987811</v>
+        <v>23.87315921679119</v>
       </c>
       <c r="D47">
-        <v>23.67711532720918</v>
+        <v>22.32029965433039</v>
       </c>
       <c r="E47">
-        <v>24.44552954025968</v>
+        <v>23.55714063436309</v>
       </c>
       <c r="F47">
-        <v>23.63506053637979</v>
+        <v>23.65939914681027</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>22.19464335846007</v>
+        <v>23.85678304410064</v>
       </c>
       <c r="C48">
-        <v>24.58167539412341</v>
+        <v>24.00023205578821</v>
       </c>
       <c r="D48">
-        <v>23.80279057235438</v>
+        <v>22.3926470247954</v>
       </c>
       <c r="E48">
-        <v>24.52158614542416</v>
+        <v>23.70674203824548</v>
       </c>
       <c r="F48">
-        <v>23.72850559867741</v>
+        <v>23.82442884085273</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>22.19446049173814</v>
+        <v>24.02088205792419</v>
       </c>
       <c r="C49">
-        <v>24.60167365393038</v>
+        <v>24.12223110817335</v>
       </c>
       <c r="D49">
-        <v>23.92020593848531</v>
+        <v>22.46320283078597</v>
       </c>
       <c r="E49">
-        <v>24.58739076750415</v>
+        <v>23.85120469816133</v>
       </c>
       <c r="F49">
-        <v>23.81835751230724</v>
+        <v>23.98227407414398</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>22.19224580065554</v>
+        <v>24.1774263806891</v>
       </c>
       <c r="C50">
-        <v>24.61553258112068</v>
+        <v>24.23844410337534</v>
       </c>
       <c r="D50">
-        <v>24.02813022707749</v>
+        <v>22.5317488187485</v>
       </c>
       <c r="E50">
-        <v>24.64295108688188</v>
+        <v>23.98959021660636</v>
       </c>
       <c r="F50">
-        <v>23.90401417124253</v>
+        <v>24.13191352075857</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>22.18806778502672</v>
+        <v>24.32510757905547</v>
       </c>
       <c r="C51">
-        <v>24.62338057411766</v>
+        <v>24.34813147471378</v>
       </c>
       <c r="D51">
-        <v>24.12546678565298</v>
+        <v>22.59805758110647</v>
       </c>
       <c r="E51">
-        <v>24.6883965748298</v>
+        <v>24.12096682659238</v>
       </c>
       <c r="F51">
-        <v>23.98481545661397</v>
+        <v>24.27238319265907</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>22.1819929739725</v>
+        <v>24.46265384902362</v>
       </c>
       <c r="C52">
-        <v>24.62537725501286</v>
+        <v>24.45053614642777</v>
       </c>
       <c r="D52">
-        <v>24.21132121560146</v>
+        <v>22.66189409230854</v>
       </c>
       <c r="E52">
-        <v>24.72396786644057</v>
+        <v>24.24443270243235</v>
       </c>
       <c r="F52">
-        <v>24.06004878339706</v>
+        <v>24.40280018085283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22.17572457265353</v>
+        <v>24.58887522015111</v>
       </c>
       <c r="C53">
-        <v>24.62409553678855</v>
+        <v>24.54489901071521</v>
       </c>
       <c r="D53">
-        <v>24.29205302792858</v>
+        <v>22.72301716735664</v>
       </c>
       <c r="E53">
-        <v>24.75387978095316</v>
+        <v>24.35914141176914</v>
       </c>
       <c r="F53">
-        <v>24.13950936655449</v>
+        <v>24.52238547237</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>22.17073604611116</v>
+        <v>24.7027116543349</v>
       </c>
       <c r="C54">
-        <v>24.62153723204989</v>
+        <v>24.63047758777691</v>
       </c>
       <c r="D54">
-        <v>24.37199622141423</v>
+        <v>22.78118137556199</v>
       </c>
       <c r="E54">
-        <v>24.78119064462452</v>
+        <v>24.46432804864435</v>
       </c>
       <c r="F54">
-        <v>24.23103651615022</v>
+        <v>24.6304845329472</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>22.16676847583729</v>
+        <v>24.80328012892323</v>
       </c>
       <c r="C55">
-        <v>24.61711089460527</v>
+        <v>24.70657049462344</v>
       </c>
       <c r="D55">
-        <v>24.44788889015624</v>
+        <v>22.83613960699983</v>
       </c>
       <c r="E55">
-        <v>24.80474154991338</v>
+        <v>24.55933429570191</v>
       </c>
       <c r="F55">
-        <v>24.33082985823921</v>
+        <v>24.7265844534213</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>22.16358873247618</v>
+        <v>24.88991609219896</v>
       </c>
       <c r="C56">
-        <v>24.61033906110935</v>
+        <v>24.77254730602027</v>
       </c>
       <c r="D56">
-        <v>24.51715725998221</v>
+        <v>22.88764637594642</v>
       </c>
       <c r="E56">
-        <v>24.82369036491448</v>
+        <v>24.6436305321124</v>
       </c>
       <c r="F56">
-        <v>24.43500263233491</v>
+        <v>24.81032646243414</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>22.16098649483261</v>
+        <v>24.96220434713669</v>
       </c>
       <c r="C57">
-        <v>24.60084883519075</v>
+        <v>24.82788107502932</v>
       </c>
       <c r="D57">
-        <v>24.5779158026221</v>
+        <v>22.93546163753611</v>
       </c>
       <c r="E57">
-        <v>24.83746347676889</v>
+        <v>24.71683317086639</v>
       </c>
       <c r="F57">
-        <v>24.53970358229484</v>
+        <v>24.8815128718027</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>22.15877243238572</v>
+        <v>25.01999618084296</v>
       </c>
       <c r="C58">
-        <v>24.58836195233415</v>
+        <v>24.87218116732218</v>
       </c>
       <c r="D58">
-        <v>24.62891996356247</v>
+        <v>22.97935531621492</v>
       </c>
       <c r="E58">
-        <v>24.84571233131289</v>
+        <v>24.77871641321306</v>
       </c>
       <c r="F58">
-        <v>24.64126040496787</v>
+        <v>24.94010806623249</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>22.15677634943052</v>
+        <v>25.06341027745273</v>
       </c>
       <c r="C59">
-        <v>24.57268275539702</v>
+        <v>24.90522280969946</v>
       </c>
       <c r="D59">
-        <v>24.66948472943694</v>
+        <v>23.01911191004915</v>
       </c>
       <c r="E59">
-        <v>24.84826875646009</v>
+        <v>24.82921428683522</v>
       </c>
       <c r="F59">
-        <v>24.7363377805478</v>
+        <v>24.9862335743484</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>22.15484526906875</v>
+        <v>25.09281687508247</v>
       </c>
       <c r="C60">
-        <v>24.55368899731552</v>
+        <v>24.92696883314014</v>
       </c>
       <c r="D60">
-        <v>24.69938546899451</v>
+        <v>23.05453590723379</v>
       </c>
       <c r="E60">
-        <v>24.84510802407414</v>
+        <v>24.86841808862679</v>
       </c>
       <c r="F60">
-        <v>24.82208018458704</v>
+        <v>25.02015769950467</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>22.15284198302756</v>
+        <v>25.10880837490653</v>
       </c>
       <c r="C61">
-        <v>24.5313206298828</v>
+        <v>24.93757959014053</v>
       </c>
       <c r="D61">
-        <v>24.71875587666596</v>
+        <v>23.08545711262767</v>
       </c>
       <c r="E61">
-        <v>24.83631438135013</v>
+        <v>24.89656621608349</v>
       </c>
       <c r="F61">
-        <v>24.89622732556744</v>
+        <v>25.04228020162551</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>22.15064356566363</v>
+        <v>25.11215833065709</v>
       </c>
       <c r="C62">
-        <v>24.50556934540592</v>
+        <v>24.93740786046564</v>
       </c>
       <c r="D62">
-        <v>24.72799121378025</v>
+        <v>23.11173593527089</v>
       </c>
       <c r="E62">
-        <v>24.82205221074246</v>
+        <v>24.91402714574792</v>
       </c>
       <c r="F62">
-        <v>24.95717929962553</v>
+        <v>25.05311350188543</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>22.14814014253378</v>
+        <v>25.10377494027367</v>
       </c>
       <c r="C63">
-        <v>24.47647043315991</v>
+        <v>24.92697995327497</v>
       </c>
       <c r="D63">
-        <v>24.72766371955398</v>
+        <v>23.13326810589775</v>
       </c>
       <c r="E63">
-        <v>24.80254330002624</v>
+        <v>24.92127840747288</v>
       </c>
       <c r="F63">
-        <v>25.00400486031662</v>
+        <v>25.0532615226006</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>22.14523383380812</v>
+        <v>25.08465292266174</v>
       </c>
       <c r="C64">
-        <v>24.44409407295835</v>
+        <v>24.90696375202645</v>
       </c>
       <c r="D64">
-        <v>24.71845290581897</v>
+        <v>23.1499885727437</v>
       </c>
       <c r="E64">
-        <v>24.77804722755974</v>
+        <v>24.91888358860264</v>
       </c>
       <c r="F64">
-        <v>25.03639452688639</v>
+        <v>25.04339753727168</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>22.14183773161963</v>
+        <v>25.05582821401013</v>
       </c>
       <c r="C65">
-        <v>24.40853730777904</v>
+        <v>24.87812913317621</v>
       </c>
       <c r="D65">
-        <v>24.70109168602236</v>
+        <v>23.1618745256143</v>
       </c>
       <c r="E65">
-        <v>24.74884514489136</v>
+        <v>24.90746814571938</v>
       </c>
       <c r="F65">
-        <v>25.05457066403471</v>
+        <v>25.02424204371487</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>22.13787482118743</v>
+        <v>25.01833830832851</v>
       </c>
       <c r="C66">
-        <v>24.36991772443714</v>
+        <v>24.8413060404582</v>
       </c>
       <c r="D66">
-        <v>24.67632565700556</v>
+        <v>23.16894686833855</v>
       </c>
       <c r="E66">
-        <v>24.71522996898364</v>
+        <v>24.88769612601826</v>
       </c>
       <c r="F66">
-        <v>25.05917259078238</v>
+        <v>24.99654190276619</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>22.13327698700874</v>
+        <v>24.97319037088091</v>
       </c>
       <c r="C67">
-        <v>24.32836810448289</v>
+        <v>24.79734457132671</v>
       </c>
       <c r="D67">
-        <v>24.64488452432589</v>
+        <v>23.171270117394</v>
       </c>
       <c r="E67">
-        <v>24.67749713333004</v>
+        <v>24.86024903170757</v>
       </c>
       <c r="F67">
-        <v>25.05113363374029</v>
+        <v>24.96105148908021</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>22.12798428239876</v>
+        <v>24.92133730960594</v>
       </c>
       <c r="C68">
-        <v>24.28403138670658</v>
+        <v>24.74708125031675</v>
       </c>
       <c r="D68">
-        <v>24.60746323907156</v>
+        <v>23.16895075362742</v>
       </c>
       <c r="E68">
-        <v>24.63593740454901</v>
+        <v>24.82580757641124</v>
       </c>
       <c r="F68">
-        <v>25.03156639425047</v>
+        <v>24.91851621376713</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>22.12194438516043</v>
+        <v>24.8636616266361</v>
       </c>
       <c r="C69">
-        <v>24.23705654402632</v>
+        <v>24.69131289559053</v>
       </c>
       <c r="D69">
-        <v>24.56471046969424</v>
+        <v>23.16213403885954</v>
       </c>
       <c r="E69">
-        <v>24.59083267132804</v>
+        <v>24.78503662804827</v>
       </c>
       <c r="F69">
-        <v>25.00166578628052</v>
+        <v>24.86965900262237</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>22.115111923497</v>
+        <v>24.80096638281502</v>
       </c>
       <c r="C70">
-        <v>24.1875945946967</v>
+        <v>24.63077905965691</v>
       </c>
       <c r="D70">
-        <v>24.51722257848983</v>
+        <v>23.15099945235589</v>
       </c>
       <c r="E70">
-        <v>24.54245306915599</v>
+        <v>24.73857372177181</v>
       </c>
       <c r="F70">
-        <v>24.96263342631735</v>
+        <v>24.81516958749006</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>22.1074478304205</v>
+        <v>24.73397134326832</v>
       </c>
       <c r="C71">
-        <v>24.13579694971549</v>
+        <v>24.56615154663776</v>
       </c>
       <c r="D71">
-        <v>24.46554154843085</v>
+        <v>23.13575501916688</v>
       </c>
       <c r="E71">
-        <v>24.49105473574555</v>
+        <v>24.68702060422715</v>
       </c>
       <c r="F71">
-        <v>24.91562407782355</v>
+        <v>24.75569664114335</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>22.09891878009037</v>
+        <v>24.66331376506</v>
       </c>
       <c r="C72">
-        <v>24.08181319294743</v>
+        <v>24.49803025559043</v>
       </c>
       <c r="D72">
-        <v>24.4101556368428</v>
+        <v>23.11663112436795</v>
       </c>
       <c r="E72">
-        <v>24.43687871096698</v>
+        <v>24.63093785394959</v>
       </c>
       <c r="F72">
-        <v>24.86171143098181</v>
+        <v>24.69184236286693</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>22.08949674770351</v>
+        <v>24.58955196787723</v>
       </c>
       <c r="C73">
-        <v>24.02578912022023</v>
+        <v>24.42694362204697</v>
       </c>
       <c r="D73">
-        <v>24.35150166584631</v>
+        <v>23.0938741484873</v>
       </c>
       <c r="E73">
-        <v>24.38015051919087</v>
+        <v>24.57084179748069</v>
       </c>
       <c r="F73">
-        <v>24.80186935266208</v>
+        <v>24.62415944224711</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>22.07915837100612</v>
+        <v>24.5131708780563</v>
       </c>
       <c r="C74">
-        <v>23.96786542172988</v>
+        <v>24.35335190825914</v>
       </c>
       <c r="D74">
-        <v>24.2899682789575</v>
+        <v>23.06773992971328</v>
       </c>
       <c r="E74">
-        <v>24.32108013529664</v>
+        <v>24.50720348308499</v>
       </c>
       <c r="F74">
-        <v>24.7369646798492</v>
+        <v>24.55314991247124</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>22.06788482003433</v>
+        <v>24.43458871328419</v>
       </c>
       <c r="C75">
-        <v>23.90817695834611</v>
+        <v>24.2776526218163</v>
       </c>
       <c r="D75">
-        <v>24.22589993698838</v>
+        <v>23.03848785882114</v>
       </c>
       <c r="E75">
-        <v>24.25986228514317</v>
+        <v>24.44044917628775</v>
       </c>
       <c r="F75">
-        <v>24.66775791628837</v>
+        <v>24.47926556129278</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>22.0556609391879</v>
+        <v>24.35416401701384</v>
       </c>
       <c r="C76">
-        <v>23.84685225888034</v>
+        <v>24.20018673967586</v>
       </c>
       <c r="D76">
-        <v>24.15960112110097</v>
+        <v>23.00637549432963</v>
       </c>
       <c r="E76">
-        <v>24.19667700811923</v>
+        <v>24.37096192948076</v>
       </c>
       <c r="F76">
-        <v>24.59490896805796</v>
+        <v>24.40290952275357</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>22.04247549903202</v>
+        <v>24.27220272106337</v>
       </c>
       <c r="C77">
-        <v>23.78401314609327</v>
+        <v>24.12124522473542</v>
       </c>
       <c r="D77">
-        <v>24.09134036833522</v>
+        <v>22.97165445237435</v>
       </c>
       <c r="E77">
-        <v>24.13169036549369</v>
+        <v>24.29908397828473</v>
       </c>
       <c r="F77">
-        <v>24.51898563510471</v>
+        <v>24.32443879170815</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>22.02832058653084</v>
+        <v>24.18896488190854</v>
       </c>
       <c r="C78">
-        <v>23.71977449746195</v>
+        <v>24.04107541020264</v>
       </c>
       <c r="D78">
-        <v>24.02135405742687</v>
+        <v>22.93456659215081</v>
       </c>
       <c r="E78">
-        <v>24.06505522114622</v>
+        <v>24.22511957482445</v>
       </c>
       <c r="F78">
-        <v>24.44047327577394</v>
+        <v>24.24416736198883</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>22.01319128359055</v>
+        <v>24.10467092512173</v>
       </c>
       <c r="C79">
-        <v>23.65424422708815</v>
+        <v>23.95988694519981</v>
       </c>
       <c r="D79">
-        <v>23.94985004508927</v>
+        <v>22.89534142998894</v>
       </c>
       <c r="E79">
-        <v>23.99691208289818</v>
+        <v>24.14933808748077</v>
       </c>
       <c r="F79">
-        <v>24.35978490415048</v>
+        <v>24.16236971159654</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21.997085521805</v>
+        <v>24.01950726371043</v>
       </c>
       <c r="C80">
-        <v>23.58752340610785</v>
+        <v>23.87785719537408</v>
       </c>
       <c r="D80">
-        <v>23.87701103366749</v>
+        <v>22.85419429557666</v>
       </c>
       <c r="E80">
-        <v>23.92738995459928</v>
+        <v>24.07197714117866</v>
       </c>
       <c r="F80">
-        <v>24.27727093507027</v>
+        <v>24.07928446381123</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21.9800036434336</v>
+        <v>23.93363126893365</v>
       </c>
       <c r="C81">
-        <v>23.51970644119225</v>
+        <v>23.79513601071569</v>
       </c>
       <c r="D81">
-        <v>23.80299758242521</v>
+        <v>22.81132527718127</v>
       </c>
       <c r="E81">
-        <v>23.85660717742804</v>
+        <v>23.9932457758445</v>
       </c>
       <c r="F81">
-        <v>24.19322789585823</v>
+        <v>23.99511806878463</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21.96194828447144</v>
+        <v>23.84717562978306</v>
       </c>
       <c r="C82">
-        <v>23.45088129639707</v>
+        <v>23.71184992566037</v>
       </c>
       <c r="D82">
-        <v>23.72795078373612</v>
+        <v>22.76691872868808</v>
       </c>
       <c r="E82">
-        <v>23.78467224476047</v>
+        <v>23.91332748522462</v>
       </c>
       <c r="F82">
-        <v>24.10790630239594</v>
+        <v>23.91004836753589</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21.94292417391114</v>
+        <v>23.76025214585533</v>
       </c>
       <c r="C83">
-        <v>23.38112976604939</v>
+        <v>23.62810575348231</v>
       </c>
       <c r="D83">
-        <v>23.65199465117459</v>
+        <v>22.72114325402003</v>
       </c>
       <c r="E83">
-        <v>23.71168458638017</v>
+        <v>23.83238305003455</v>
       </c>
       <c r="F83">
-        <v>24.02151769883087</v>
+        <v>23.82422804054096</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21.9229377550851</v>
+        <v>23.67295498512607</v>
       </c>
       <c r="C84">
-        <v>23.31052778600479</v>
+        <v>23.54399366909281</v>
       </c>
       <c r="D84">
-        <v>23.57523825368826</v>
+        <v>22.67415211529769</v>
       </c>
       <c r="E84">
-        <v>23.63773531094583</v>
+        <v>23.75055313158828</v>
       </c>
       <c r="F84">
-        <v>23.9342406985925</v>
+        <v>23.73778776499547</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21.9019972253923</v>
+        <v>23.58536349385785</v>
       </c>
       <c r="C85">
-        <v>23.23914575925653</v>
+        <v>23.459589848401</v>
       </c>
       <c r="D85">
-        <v>23.49777758461109</v>
+        <v>22.62608392400141</v>
       </c>
       <c r="E85">
-        <v>23.5629078973529</v>
+        <v>23.66796063096895</v>
       </c>
       <c r="F85">
-        <v>23.84622614482488</v>
+        <v>23.6508390794254</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21.87991400645474</v>
+        <v>23.49754452626972</v>
       </c>
       <c r="C86">
-        <v>23.16702046438475</v>
+        <v>23.37495867608208</v>
       </c>
       <c r="D86">
-        <v>23.41969377188884</v>
+        <v>22.57706344742965</v>
       </c>
       <c r="E86">
-        <v>23.48726090330495</v>
+        <v>23.58471284953689</v>
       </c>
       <c r="F86">
-        <v>23.75759908282258</v>
+        <v>23.56347698807333</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21.85652538294197</v>
+        <v>23.40955444092622</v>
       </c>
       <c r="C87">
-        <v>23.09418961913215</v>
+        <v>23.29015462158752</v>
       </c>
       <c r="D87">
-        <v>23.34105819249988</v>
+        <v>22.527202603859</v>
       </c>
       <c r="E87">
-        <v>23.41084987202609</v>
+        <v>23.50090341681159</v>
       </c>
       <c r="F87">
-        <v>23.66846505664221</v>
+        <v>23.47578225914844</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21.83187969680381</v>
+        <v>23.3214407868525</v>
       </c>
       <c r="C88">
-        <v>23.02071843518625</v>
+        <v>23.20522381928408</v>
       </c>
       <c r="D88">
-        <v>23.26193796570724</v>
+        <v>22.47660156803586</v>
       </c>
       <c r="E88">
-        <v>23.33374506115922</v>
+        <v>23.41661401320409</v>
       </c>
       <c r="F88">
-        <v>23.57891737637494</v>
+        <v>23.38782354967485</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21.80602443367969</v>
+        <v>23.23324371992946</v>
       </c>
       <c r="C89">
-        <v>22.94666638774248</v>
+        <v>23.12020536065595</v>
       </c>
       <c r="D89">
-        <v>23.18239308885226</v>
+        <v>22.4253496381468</v>
       </c>
       <c r="E89">
-        <v>23.25601095159314</v>
+        <v>23.33191588667328</v>
       </c>
       <c r="F89">
-        <v>23.48903474803857</v>
+        <v>23.29965909374107</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21.77900525454377</v>
+        <v>23.14499719038226</v>
       </c>
       <c r="C90">
-        <v>22.87208773693151</v>
+        <v>23.03513243816963</v>
       </c>
       <c r="D90">
-        <v>23.10247606057831</v>
+        <v>22.37352624684736</v>
       </c>
       <c r="E90">
-        <v>23.17770599277911</v>
+        <v>23.24687118519435</v>
       </c>
       <c r="F90">
-        <v>23.39888356036261</v>
+        <v>23.21133829168971</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21.75086607852073</v>
+        <v>23.05672993675704</v>
       </c>
       <c r="C91">
-        <v>22.79703211276522</v>
+        <v>22.95003330882373</v>
       </c>
       <c r="D91">
-        <v>23.02223304171922</v>
+        <v>22.32120197749189</v>
       </c>
       <c r="E91">
-        <v>23.09888325845468</v>
+        <v>23.16153413012756</v>
       </c>
       <c r="F91">
-        <v>23.30852064302951</v>
+        <v>23.12290305307224</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21.72164934339621</v>
+        <v>22.96846631898936</v>
       </c>
       <c r="C92">
-        <v>22.72154483096283</v>
+        <v>22.8649320394416</v>
       </c>
       <c r="D92">
-        <v>22.94170501916757</v>
+        <v>22.26843948068096</v>
       </c>
       <c r="E92">
-        <v>23.01959143161161</v>
+        <v>23.07595204462218</v>
       </c>
       <c r="F92">
-        <v>23.21799407726413</v>
+        <v>23.03438892728243</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21.69139618068317</v>
+        <v>22.88022701494852</v>
       </c>
       <c r="C93">
-        <v>22.64566728263024</v>
+        <v>22.77984913176929</v>
       </c>
       <c r="D93">
-        <v>22.86092840923086</v>
+        <v>22.21529449257903</v>
       </c>
       <c r="E93">
-        <v>22.93987505935235</v>
+        <v>22.99016625198606</v>
       </c>
       <c r="F93">
-        <v>23.12734479593144</v>
+        <v>22.9458261275713</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21.66014643747934</v>
+        <v>22.79202960423252</v>
       </c>
       <c r="C94">
-        <v>22.56943734854039</v>
+        <v>22.69480207457091</v>
       </c>
       <c r="D94">
-        <v>22.77993526219819</v>
+        <v>22.16181650240157</v>
       </c>
       <c r="E94">
-        <v>22.8597747108407</v>
+        <v>22.90421285774232</v>
       </c>
       <c r="F94">
-        <v>23.03660768779018</v>
+        <v>22.85724030023848</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21.62793860902877</v>
+        <v>22.70388905694101</v>
       </c>
       <c r="C95">
-        <v>22.49288974004634</v>
+        <v>22.60980582045494</v>
       </c>
       <c r="D95">
-        <v>22.69875397597869</v>
+        <v>22.10804932851804</v>
       </c>
       <c r="E95">
-        <v>22.77932747766544</v>
+        <v>22.81812342946071</v>
       </c>
       <c r="F95">
-        <v>22.9458126241209</v>
+        <v>22.7686532502424</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21.5948098671657</v>
+        <v>22.6158181428968</v>
       </c>
       <c r="C96">
-        <v>22.41605629943319</v>
+        <v>22.52487318345262</v>
       </c>
       <c r="D96">
-        <v>22.6174098901383</v>
+        <v>22.05403178975838</v>
       </c>
       <c r="E96">
-        <v>22.69856739063017</v>
+        <v>22.73192558602903</v>
       </c>
       <c r="F96">
-        <v>22.85498532083035</v>
+        <v>22.68008354590701</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21.56079602695385</v>
+        <v>22.52782777352779</v>
       </c>
       <c r="C97">
-        <v>22.33896625628835</v>
+        <v>22.44001516506363</v>
       </c>
       <c r="D97">
-        <v>22.53592561398706</v>
+        <v>21.99979827478125</v>
       </c>
       <c r="E97">
-        <v>22.61752573017246</v>
+        <v>22.6456435167205</v>
       </c>
       <c r="F97">
-        <v>22.76414794574664</v>
+        <v>22.59154701486256</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21.52593170136439</v>
+        <v>22.43992729187379</v>
       </c>
       <c r="C98">
-        <v>22.26164641620158</v>
+        <v>22.35524122071607</v>
       </c>
       <c r="D98">
-        <v>22.45432130771212</v>
+        <v>21.94537928460832</v>
       </c>
       <c r="E98">
-        <v>22.53623123174974</v>
+        <v>22.55929842176037</v>
       </c>
       <c r="F98">
-        <v>22.67331960668017</v>
+        <v>22.50305718802042</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21.49025038227321</v>
+        <v>22.35212471105467</v>
       </c>
       <c r="C99">
-        <v>22.18412140547036</v>
+        <v>22.27055948865097</v>
       </c>
       <c r="D99">
-        <v>22.37261502079999</v>
+        <v>21.89080190721258</v>
       </c>
       <c r="E99">
-        <v>22.45471033870321</v>
+        <v>22.47290890071994</v>
       </c>
       <c r="F99">
-        <v>22.58251679287897</v>
+        <v>22.41462563294399</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21.45378444118792</v>
+        <v>22.26442691724838</v>
       </c>
       <c r="C100">
-        <v>22.10641387881742</v>
+        <v>22.18597698132407</v>
       </c>
       <c r="D100">
-        <v>22.29082285822225</v>
+        <v>21.83609019644241</v>
       </c>
       <c r="E100">
-        <v>22.37298736723989</v>
+        <v>22.38649128887347</v>
       </c>
       <c r="F100">
-        <v>22.49175377070481</v>
+        <v>22.32626225883807</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21.41656515634746</v>
+        <v>22.17683984065691</v>
       </c>
       <c r="C101">
-        <v>22.02854470443028</v>
+        <v>22.10149975575073</v>
       </c>
       <c r="D101">
-        <v>22.20895908892878</v>
+        <v>21.78126552052226</v>
       </c>
       <c r="E101">
-        <v>22.29108478796532</v>
+        <v>22.30005994825065</v>
       </c>
       <c r="F101">
-        <v>22.40104292073625</v>
+        <v>22.23797557588106</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>21.37862273327904</v>
+        <v>22.08936859051322</v>
       </c>
       <c r="C102">
-        <v>21.95053297461994</v>
+        <v>22.01713305465387</v>
       </c>
       <c r="D102">
-        <v>22.12703668266093</v>
+        <v>21.72634687972918</v>
       </c>
       <c r="E102">
-        <v>22.20902302090684</v>
+        <v>22.21362752027237</v>
       </c>
       <c r="F102">
-        <v>22.31039501512924</v>
+        <v>22.14977290556438</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>21.33998634381354</v>
+        <v>22.00201759223349</v>
       </c>
       <c r="C103">
-        <v>21.87239633409826</v>
+        <v>21.93288142301594</v>
       </c>
       <c r="D103">
-        <v>22.04506696545056</v>
+        <v>21.67135116748046</v>
       </c>
       <c r="E103">
-        <v>22.12682123155817</v>
+        <v>22.12720514506484</v>
       </c>
       <c r="F103">
-        <v>22.21981944880145</v>
+        <v>22.06166056680954</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>21.30068416280316</v>
+        <v>21.91479065513742</v>
       </c>
       <c r="C104">
-        <v>21.79415093330791</v>
+        <v>21.84874880718393</v>
       </c>
       <c r="D104">
-        <v>21.96306043496755</v>
+        <v>21.61629342752383</v>
       </c>
       <c r="E104">
-        <v>22.04449671793491</v>
+        <v>22.0408026518602</v>
       </c>
       <c r="F104">
-        <v>22.12932443170701</v>
+        <v>21.97364402013418</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>21.26074332262675</v>
+        <v>21.82769115651232</v>
       </c>
       <c r="C105">
-        <v>21.71581174734375</v>
+        <v>21.76473863847355</v>
       </c>
       <c r="D105">
-        <v>21.8810264187081</v>
+        <v>21.56118707292434</v>
       </c>
       <c r="E105">
-        <v>21.9620658405017</v>
+        <v>21.95442872334853</v>
       </c>
       <c r="F105">
-        <v>22.03891715517055</v>
+        <v>21.88572799443249</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>21.22019011109413</v>
+        <v>21.74072197618747</v>
       </c>
       <c r="C106">
-        <v>21.637392575839</v>
+        <v>21.68085389922325</v>
       </c>
       <c r="D106">
-        <v>21.79897346121864</v>
+        <v>21.50604407139274</v>
       </c>
       <c r="E106">
-        <v>21.87954358917306</v>
+        <v>21.86809102409999</v>
       </c>
       <c r="F106">
-        <v>21.94860397500361</v>
+        <v>21.79791659797245</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>21.17904970508899</v>
+        <v>21.65388568221553</v>
       </c>
       <c r="C107">
-        <v>21.55890625352402</v>
+        <v>21.59709720613308</v>
       </c>
       <c r="D107">
-        <v>21.71690916308533</v>
+        <v>21.4508751186716</v>
       </c>
       <c r="E107">
-        <v>21.79694398135062</v>
+        <v>21.78179636734351</v>
       </c>
       <c r="F107">
-        <v>21.85839042172349</v>
+        <v>21.71021340820172</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>21.13734659135971</v>
+        <v>21.56718448678826</v>
       </c>
       <c r="C108">
-        <v>21.48036457328724</v>
+        <v>21.51347084350938</v>
       </c>
       <c r="D108">
-        <v>21.63484044626959</v>
+        <v>21.3956897718587</v>
       </c>
       <c r="E108">
-        <v>21.71427992757552</v>
+        <v>21.69555077681059</v>
       </c>
       <c r="F108">
-        <v>21.76828144579735</v>
+        <v>21.62262155058999</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>21.09510419827046</v>
+        <v>21.48062032817659</v>
       </c>
       <c r="C109">
-        <v>21.40177858341767</v>
+        <v>21.42997682186481</v>
       </c>
       <c r="D109">
-        <v>21.55277348714066</v>
+        <v>21.34049658178849</v>
       </c>
       <c r="E109">
-        <v>21.63156348132798</v>
+        <v>21.60935963254516</v>
       </c>
       <c r="F109">
-        <v>21.67828130096675</v>
+        <v>21.53514376220636</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>21.05234522355775</v>
+        <v>21.39419492216991</v>
       </c>
       <c r="C110">
-        <v>21.32315837140978</v>
+        <v>21.34661692245193</v>
       </c>
       <c r="D110">
-        <v>21.47071389191302</v>
+        <v>21.28530320951868</v>
       </c>
       <c r="E110">
-        <v>21.54880574056007</v>
+        <v>21.52322772571657</v>
       </c>
       <c r="F110">
-        <v>21.58839384937109</v>
+        <v>21.44778244547022</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>21.00909152501647</v>
+        <v>21.30790977065401</v>
       </c>
       <c r="C111">
-        <v>21.24451337791377</v>
+        <v>21.26339268616506</v>
       </c>
       <c r="D111">
-        <v>21.38866671676045</v>
+        <v>21.2301165249536</v>
       </c>
       <c r="E111">
-        <v>21.46601703948787</v>
+        <v>21.43715929150978</v>
       </c>
       <c r="F111">
-        <v>21.49862250252553</v>
+        <v>21.36053971688069</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>20.96536415537188</v>
+        <v>21.2217662094845</v>
       </c>
       <c r="C112">
-        <v>21.16585227615182</v>
+        <v>21.18030550349599</v>
       </c>
       <c r="D112">
-        <v>21.30663656111858</v>
+        <v>21.17494269973782</v>
       </c>
       <c r="E112">
-        <v>21.38320697685797</v>
+        <v>21.35115815483435</v>
       </c>
       <c r="F112">
-        <v>21.40897033574205</v>
+        <v>21.2734174465045</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>20.92118341126365</v>
+        <v>21.13576543114077</v>
       </c>
       <c r="C113">
-        <v>21.08718313718421</v>
+        <v>21.09735657657416</v>
       </c>
       <c r="D113">
-        <v>21.224627634034</v>
+        <v>21.1197872785676</v>
       </c>
       <c r="E113">
-        <v>21.30038448605987</v>
+        <v>21.26522768884914</v>
       </c>
       <c r="F113">
-        <v>21.31944009085969</v>
+        <v>21.18641729242016</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>20.87656884484472</v>
+        <v>21.04990849001443</v>
       </c>
       <c r="C114">
-        <v>21.00851345172988</v>
+        <v>21.01454698508003</v>
       </c>
       <c r="D114">
-        <v>21.14264366159177</v>
+        <v>21.06465524952648</v>
       </c>
       <c r="E114">
-        <v>21.21755791666159</v>
+        <v>21.17937093475708</v>
       </c>
       <c r="F114">
-        <v>21.23003425552956</v>
+        <v>21.09954072972245</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>20.83153924964793</v>
+        <v>20.96419634202356</v>
       </c>
       <c r="C115">
-        <v>20.9298501677223</v>
+        <v>20.93187768662386</v>
       </c>
       <c r="D115">
-        <v>21.06068818917025</v>
+        <v>21.00955110517202</v>
       </c>
       <c r="E115">
-        <v>21.13473503706804</v>
+        <v>21.09359061705788</v>
       </c>
       <c r="F115">
-        <v>21.14075503893751</v>
+        <v>21.01278907250775</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>20.78611274166268</v>
+        <v>20.87862983384749</v>
       </c>
       <c r="C116">
-        <v>20.85119974296154</v>
+        <v>20.84934953396072</v>
       </c>
       <c r="D116">
-        <v>20.97876435110766</v>
+        <v>20.95447888519193</v>
       </c>
       <c r="E116">
-        <v>21.0519231386537</v>
+        <v>21.00788917989846</v>
       </c>
       <c r="F116">
-        <v>21.05160443341158</v>
+        <v>20.92616349572278</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>20.74030672961757</v>
+        <v>20.79320973137868</v>
       </c>
       <c r="C117">
-        <v>20.77256826685681</v>
+        <v>20.76696330155682</v>
       </c>
       <c r="D117">
-        <v>20.89687499267371</v>
+        <v>20.89944225609882</v>
       </c>
       <c r="E117">
-        <v>20.96912899600183</v>
+        <v>20.922268843848</v>
       </c>
       <c r="F117">
-        <v>20.96258423853256</v>
+        <v>20.83966506035271</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>20.6941379628202</v>
+        <v>20.70793672706438</v>
       </c>
       <c r="C118">
-        <v>20.69396133201815</v>
+        <v>20.68471967588628</v>
       </c>
       <c r="D118">
-        <v>20.81502282704232</v>
+        <v>20.84444449661028</v>
       </c>
       <c r="E118">
-        <v>20.8863589689457</v>
+        <v>20.83673159786064</v>
       </c>
       <c r="F118">
-        <v>20.87369608781032</v>
+        <v>20.7532947202255</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.6476225552639</v>
+        <v>20.62281144712926</v>
       </c>
       <c r="C119">
-        <v>20.61538410901927</v>
+        <v>20.60261928525803</v>
       </c>
       <c r="D119">
-        <v>20.73321014822616</v>
+        <v>20.78948862907033</v>
       </c>
       <c r="E119">
-        <v>20.80361898642562</v>
+        <v>20.7512792538282</v>
       </c>
       <c r="F119">
-        <v>20.78494145349337</v>
+        <v>20.66705334675892</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.60077599198771</v>
+        <v>20.53783446514426</v>
       </c>
       <c r="C120">
-        <v>20.53684165932508</v>
+        <v>20.52066269152074</v>
       </c>
       <c r="D120">
-        <v>20.65143921135344</v>
+        <v>20.7345773290164</v>
       </c>
       <c r="E120">
-        <v>20.72091460768691</v>
+        <v>20.66591344827177</v>
       </c>
       <c r="F120">
-        <v>20.69632169368343</v>
+        <v>20.58094172849743</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>20.55361316347115</v>
+        <v>20.45300630574948</v>
       </c>
       <c r="C121">
-        <v>20.45833852838292</v>
+        <v>20.43885040724594</v>
       </c>
       <c r="D121">
-        <v>20.56971198434998</v>
+        <v>20.67971308653724</v>
       </c>
       <c r="E121">
-        <v>20.63825104087425</v>
+        <v>20.58063566607481</v>
       </c>
       <c r="F121">
-        <v>20.60783809557953</v>
+        <v>20.49496058640432</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.50614838404784</v>
+        <v>20.36832745029052</v>
       </c>
       <c r="C122">
-        <v>20.37987887075199</v>
+        <v>20.35718289976269</v>
       </c>
       <c r="D122">
-        <v>20.48803028207161</v>
+        <v>20.62489810051687</v>
       </c>
       <c r="E122">
-        <v>20.55563315463743</v>
+        <v>20.49544726601414</v>
       </c>
       <c r="F122">
-        <v>20.51949174807075</v>
+        <v>20.40911058183451</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>20.45839540673246</v>
+        <v>20.28379834663121</v>
       </c>
       <c r="C123">
-        <v>20.30146687792453</v>
+        <v>20.27566059526545</v>
       </c>
       <c r="D123">
-        <v>20.40639578330992</v>
+        <v>20.57013441139291</v>
       </c>
       <c r="E123">
-        <v>20.47306554755136</v>
+        <v>20.4103494830197</v>
       </c>
       <c r="F123">
-        <v>20.43128371804409</v>
+        <v>20.32339231843501</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>20.41036744256348</v>
+        <v>20.19941940692334</v>
       </c>
       <c r="C124">
-        <v>20.22310627507425</v>
+        <v>20.1942838879801</v>
       </c>
       <c r="D124">
-        <v>20.32480999584821</v>
+        <v>20.51542383840546</v>
       </c>
       <c r="E124">
-        <v>20.3905525497912</v>
+        <v>20.32534345242347</v>
       </c>
       <c r="F124">
-        <v>20.34321510104051</v>
+        <v>20.23780635841861</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>20.36207718740343</v>
+        <v>20.11519101531839</v>
       </c>
       <c r="C125">
-        <v>20.1448004577962</v>
+        <v>20.11305314040489</v>
       </c>
       <c r="D125">
-        <v>20.24327433663114</v>
+        <v>20.46076805680692</v>
       </c>
       <c r="E125">
-        <v>20.30809814325807</v>
+        <v>20.24043021637216</v>
       </c>
       <c r="F125">
-        <v>20.25528674160875</v>
+        <v>20.15235321927346</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>20.31353682197641</v>
+        <v>20.03111353151061</v>
       </c>
       <c r="C126">
-        <v>20.06655283092106</v>
+        <v>20.03196869008533</v>
       </c>
       <c r="D126">
-        <v>20.16179007270485</v>
+        <v>20.40616857851085</v>
       </c>
       <c r="E126">
-        <v>20.22570620995069</v>
+        <v>20.1556107325641</v>
       </c>
       <c r="F126">
-        <v>20.16749947773982</v>
+        <v>20.06703338775067</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>20.26475805181951</v>
+        <v>19.94718729685351</v>
       </c>
       <c r="C127">
-        <v>19.98836646312087</v>
+        <v>19.95103085144597</v>
       </c>
       <c r="D127">
-        <v>20.08035839808036</v>
+        <v>20.35162679193519</v>
       </c>
       <c r="E127">
-        <v>20.14338038739884</v>
+        <v>20.0708858906519</v>
       </c>
       <c r="F127">
-        <v>20.07985424295912</v>
+        <v>19.98184731618269</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>20.21575210363654</v>
+        <v>19.86341262507202</v>
       </c>
       <c r="C128">
-        <v>19.91024418689689</v>
+        <v>19.87023991762177</v>
       </c>
       <c r="D128">
-        <v>19.9989804038545</v>
+        <v>20.29714395635891</v>
       </c>
       <c r="E128">
-        <v>20.06112394999014</v>
+        <v>19.98625650983884</v>
       </c>
       <c r="F128">
-        <v>19.99235175111483</v>
+        <v>19.8967954350419</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>20.16652975926617</v>
+        <v>19.77978982911614</v>
       </c>
       <c r="C129">
-        <v>19.83218876200539</v>
+        <v>19.78959616524601</v>
       </c>
       <c r="D129">
-        <v>19.91765707331634</v>
+        <v>20.24272123096009</v>
       </c>
       <c r="E129">
-        <v>19.97894019327796</v>
+        <v>19.9017233546348</v>
       </c>
       <c r="F129">
-        <v>19.90499267284917</v>
+        <v>19.81187814621639</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>20.11710136056207</v>
+        <v>19.69631919212563</v>
       </c>
       <c r="C130">
-        <v>19.75420273264664</v>
+        <v>19.70909985258902</v>
       </c>
       <c r="D130">
-        <v>19.83638934818443</v>
+        <v>20.18835966699978</v>
       </c>
       <c r="E130">
-        <v>19.8968321736181</v>
+        <v>19.81728713605933</v>
       </c>
       <c r="F130">
-        <v>19.81777776201629</v>
+        <v>19.72709583531215</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>20.06747683426671</v>
+        <v>19.61300099407818</v>
       </c>
       <c r="C131">
-        <v>19.67628847932922</v>
+        <v>19.62875122912705</v>
       </c>
       <c r="D131">
-        <v>19.75517805171349</v>
+        <v>20.1340602337911</v>
       </c>
       <c r="E131">
-        <v>19.81480264419898</v>
+        <v>19.73294851473115</v>
       </c>
       <c r="F131">
-        <v>19.73070764674685</v>
+        <v>19.64244886537383</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>20.01766570193294</v>
+        <v>19.52983550557829</v>
       </c>
       <c r="C132">
-        <v>19.59844828864384</v>
+        <v>19.54855052713545</v>
       </c>
       <c r="D132">
-        <v>19.6740239751287</v>
+        <v>20.07982381172252</v>
       </c>
       <c r="E132">
-        <v>19.73285437476536</v>
+        <v>19.64870811753892</v>
       </c>
       <c r="F132">
-        <v>19.64378290854954</v>
+        <v>19.55793758583743</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>19.9676770988485</v>
+        <v>19.44682297608426</v>
       </c>
       <c r="C133">
-        <v>19.52068428848404</v>
+        <v>19.46849797183408</v>
       </c>
       <c r="D133">
-        <v>19.59292783227651</v>
+        <v>20.02565121168287</v>
       </c>
       <c r="E133">
-        <v>19.65098993240399</v>
+        <v>19.56456653311488</v>
       </c>
       <c r="F133">
-        <v>19.55700415145859</v>
+        <v>19.4735623299774</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>19.91751978879506</v>
+        <v>19.36396365923142</v>
       </c>
       <c r="C134">
-        <v>19.44299847373314</v>
+        <v>19.38859378493173</v>
       </c>
       <c r="D134">
-        <v>19.51189027628703</v>
+        <v>19.97154317380882</v>
       </c>
       <c r="E134">
-        <v>19.56921168133647</v>
+        <v>19.48052430766104</v>
       </c>
       <c r="F134">
-        <v>19.47037193217247</v>
+        <v>19.38932341941843</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>19.86720217398979</v>
+        <v>19.28125779160098</v>
       </c>
       <c r="C135">
-        <v>19.36539278075915</v>
+        <v>19.30883816607813</v>
       </c>
       <c r="D135">
-        <v>19.43091191907741</v>
+        <v>19.91750037852926</v>
       </c>
       <c r="E135">
-        <v>19.4875219433247</v>
+        <v>19.39658198210023</v>
       </c>
       <c r="F135">
-        <v>19.38388678512754</v>
+        <v>19.30522116464581</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>19.81673231815097</v>
+        <v>19.1987056079088</v>
       </c>
       <c r="C136">
-        <v>19.28786900367112</v>
+        <v>19.22923132375084</v>
       </c>
       <c r="D136">
-        <v>19.34999331357622</v>
+        <v>19.86352345058456</v>
       </c>
       <c r="E136">
-        <v>19.40592289294538</v>
+        <v>19.31274004627896</v>
       </c>
       <c r="F136">
-        <v>19.29754923308648</v>
+        <v>19.22125586638218</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>19.76611794695746</v>
+        <v>19.11630733631411</v>
       </c>
       <c r="C137">
-        <v>19.21042881633914</v>
+        <v>19.14977345349986</v>
       </c>
       <c r="D137">
-        <v>19.26913497981282</v>
+        <v>19.80961295893478</v>
       </c>
       <c r="E137">
-        <v>19.32441657206713</v>
+        <v>19.22899898077146</v>
       </c>
       <c r="F137">
-        <v>19.21135977983852</v>
+        <v>19.13742781772097</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>19.71536647662336</v>
+        <v>19.03406319920417</v>
       </c>
       <c r="C138">
-        <v>19.13307386498136</v>
+        <v>19.07046474153278</v>
       </c>
       <c r="D138">
-        <v>19.18833739060247</v>
+        <v>19.7557694318358</v>
       </c>
       <c r="E138">
-        <v>19.24300495532103</v>
+        <v>19.14535925329967</v>
       </c>
       <c r="F138">
-        <v>19.1253189151605</v>
+        <v>19.05373730338265</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>19.66448501030961</v>
+        <v>18.95197341679574</v>
       </c>
       <c r="C139">
-        <v>19.05580567106447</v>
+        <v>18.99130537757593</v>
       </c>
       <c r="D139">
-        <v>19.10760098473723</v>
+        <v>19.70199336407423</v>
       </c>
       <c r="E139">
-        <v>19.1616899086996</v>
+        <v>19.06182128753881</v>
       </c>
       <c r="F139">
-        <v>19.03942712988509</v>
+        <v>18.97018460301368</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>19.61348036624498</v>
+        <v>18.8700382035451</v>
       </c>
       <c r="C140">
-        <v>18.9786256546654</v>
+        <v>18.91229554017491</v>
       </c>
       <c r="D140">
-        <v>19.02692617057809</v>
+        <v>19.64828518351768</v>
       </c>
       <c r="E140">
-        <v>19.08047319202466</v>
+        <v>18.97838551543993</v>
       </c>
       <c r="F140">
-        <v>18.9536848940056</v>
+        <v>18.88676998942022</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>19.56235907603813</v>
+        <v>18.78825777366055</v>
       </c>
       <c r="C141">
-        <v>18.9015352091548</v>
+        <v>18.83343540819559</v>
       </c>
       <c r="D141">
-        <v>18.94631331626024</v>
+        <v>19.59464531539334</v>
       </c>
       <c r="E141">
-        <v>18.999356514986</v>
+        <v>18.89505234291723</v>
       </c>
       <c r="F141">
-        <v>18.86809265448888</v>
+        <v>18.80349373157173</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>19.51112740630964</v>
+        <v>18.70663233760567</v>
       </c>
       <c r="C142">
-        <v>18.824535631803</v>
+        <v>18.75472515698697</v>
       </c>
       <c r="D142">
-        <v>18.86576277206586</v>
+        <v>19.54107415503102</v>
       </c>
       <c r="E142">
-        <v>18.9183414936866</v>
+        <v>18.81182216027898</v>
       </c>
       <c r="F142">
-        <v>18.78265087987876</v>
+        <v>18.72035609350471</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.45979136400048</v>
+        <v>18.62516210307092</v>
       </c>
       <c r="C143">
-        <v>18.74762814287464</v>
+        <v>18.67616495837467</v>
       </c>
       <c r="D143">
-        <v>18.78527485197157</v>
+        <v>19.48757202494079</v>
       </c>
       <c r="E143">
-        <v>18.8374296499065</v>
+        <v>18.72869535307894</v>
       </c>
       <c r="F143">
-        <v>18.69736001551345</v>
+        <v>18.6373573361278</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>19.40835670828664</v>
+        <v>18.54384727817501</v>
       </c>
       <c r="C144">
-        <v>18.67081392646709</v>
+        <v>18.59775498367021</v>
       </c>
       <c r="D144">
-        <v>18.70484985045487</v>
+        <v>19.43413926961621</v>
       </c>
       <c r="E144">
-        <v>18.75662247530746</v>
+        <v>18.64567229067129</v>
       </c>
       <c r="F144">
-        <v>18.61222048272482</v>
+        <v>18.55449771670361</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>19.35682896394253</v>
+        <v>18.46268806673083</v>
       </c>
       <c r="C145">
-        <v>18.59409409673418</v>
+        <v>18.5194954014759</v>
       </c>
       <c r="D145">
-        <v>18.62448803862903</v>
+        <v>19.38077619800135</v>
       </c>
       <c r="E145">
-        <v>18.67592137740467</v>
+        <v>18.56275333800875</v>
       </c>
       <c r="F145">
-        <v>18.52723272198467</v>
+        <v>18.47177749117341</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>19.3052134244992</v>
+        <v>18.38168467372312</v>
       </c>
       <c r="C146">
-        <v>18.51746970937212</v>
+        <v>18.4413863795078</v>
       </c>
       <c r="D146">
-        <v>18.54418966303925</v>
+        <v>19.32748306624759</v>
       </c>
       <c r="E146">
-        <v>18.59532768602497</v>
+        <v>18.47993885107898</v>
       </c>
       <c r="F146">
-        <v>18.44239715756741</v>
+        <v>18.38919691244059</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>19.25351517146065</v>
+        <v>18.30083730213779</v>
       </c>
       <c r="C147">
-        <v>18.44094178489938</v>
+        <v>18.36342808535968</v>
       </c>
       <c r="D147">
-        <v>18.46395495517253</v>
+        <v>19.27426014326035</v>
       </c>
       <c r="E147">
-        <v>18.51484270407523</v>
+        <v>18.39722917732988</v>
       </c>
       <c r="F147">
-        <v>18.3577142018782</v>
+        <v>18.30675623148174</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>19.20173907163007</v>
+        <v>18.22014615418508</v>
       </c>
       <c r="C148">
-        <v>18.36451128844092</v>
+        <v>18.28562068344562</v>
       </c>
       <c r="D148">
-        <v>18.38378412394512</v>
+        <v>19.2211076682406</v>
       </c>
       <c r="E148">
-        <v>18.43446766513225</v>
+        <v>18.31462466283375</v>
       </c>
       <c r="F148">
-        <v>18.2731842706614</v>
+        <v>18.22445570042667</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>19.14988979907919</v>
+        <v>18.13961143212117</v>
       </c>
       <c r="C149">
-        <v>18.28817913608234</v>
+        <v>18.20796433999903</v>
       </c>
       <c r="D149">
-        <v>18.30367736519012</v>
+        <v>19.16802585130691</v>
       </c>
       <c r="E149">
-        <v>18.35420374388958</v>
+        <v>18.23212564394392</v>
       </c>
       <c r="F149">
-        <v>18.18880777320797</v>
+        <v>18.14229556726435</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>19.09797182988698</v>
+        <v>18.05923333747209</v>
       </c>
       <c r="C150">
-        <v>18.21194621889436</v>
+        <v>18.13045921971486</v>
       </c>
       <c r="D150">
-        <v>18.2236348575664</v>
+        <v>19.11501489973973</v>
       </c>
       <c r="E150">
-        <v>18.27405208417061</v>
+        <v>18.14973245516654</v>
       </c>
       <c r="F150">
-        <v>18.10458511699311</v>
+        <v>18.06027608079811</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>19.04598946354264</v>
+        <v>17.97901207215689</v>
       </c>
       <c r="C151">
-        <v>18.13581337967499</v>
+        <v>18.05310548620927</v>
       </c>
       <c r="D151">
-        <v>18.14365676470957</v>
+        <v>19.06207500128992</v>
       </c>
       <c r="E151">
-        <v>18.19401377612538</v>
+        <v>18.06744542854261</v>
       </c>
       <c r="F151">
-        <v>18.02051670547554</v>
+        <v>17.97839749100457</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>18.9939468198978</v>
+        <v>17.89894783785236</v>
       </c>
       <c r="C152">
-        <v>18.05978141809303</v>
+        <v>17.97590330422975</v>
       </c>
       <c r="D152">
-        <v>18.0637432391993</v>
+        <v>19.00920632736072</v>
       </c>
       <c r="E152">
-        <v>18.1140898649049</v>
+        <v>17.98526488838094</v>
       </c>
       <c r="F152">
-        <v>17.93660294076595</v>
+        <v>17.89666004374658</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>18.94184785352324</v>
+        <v>17.81904083665182</v>
       </c>
       <c r="C153">
-        <v>17.98385111678382</v>
+        <v>17.89885283735523</v>
       </c>
       <c r="D153">
-        <v>17.98389441782209</v>
+        <v>18.95640904191211</v>
       </c>
       <c r="E153">
-        <v>18.03428136578236</v>
+        <v>17.90319116074902</v>
       </c>
       <c r="F153">
-        <v>17.8528442230188</v>
+        <v>17.81506398809785</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>18.88969635833022</v>
+        <v>17.73929127116063</v>
       </c>
       <c r="C154">
-        <v>17.90802321689231</v>
+        <v>17.82195424974477</v>
       </c>
       <c r="D154">
-        <v>17.90411042908601</v>
+        <v>18.90368329491429</v>
       </c>
       <c r="E154">
-        <v>17.95458925047104</v>
+        <v>17.82122456744023</v>
       </c>
       <c r="F154">
-        <v>17.76924095298487</v>
+        <v>17.7336095726426</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>18.83749597327829</v>
+        <v>17.65969934394899</v>
       </c>
       <c r="C155">
-        <v>17.83229842330137</v>
+        <v>17.7452077056848</v>
       </c>
       <c r="D155">
-        <v>17.8243913887462</v>
+        <v>18.85102922385575</v>
       </c>
       <c r="E155">
-        <v>17.87501445437764</v>
+        <v>17.73936542807061</v>
       </c>
       <c r="F155">
-        <v>17.68579353022955</v>
+        <v>17.65229704487255</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>18.7852501914598</v>
+        <v>17.58026525877715</v>
       </c>
       <c r="C156">
-        <v>17.75667742578548</v>
+        <v>17.668613369518</v>
       </c>
       <c r="D156">
-        <v>17.74473740272749</v>
+        <v>18.79844696208994</v>
       </c>
       <c r="E156">
-        <v>17.795557888679</v>
+        <v>17.65761406225912</v>
       </c>
       <c r="F156">
-        <v>17.60250234871183</v>
+        <v>17.57112665428016</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>18.73296235909188</v>
+        <v>17.50098921951351</v>
       </c>
       <c r="C157">
-        <v>17.68116088078035</v>
+        <v>17.59217140624643</v>
       </c>
       <c r="D157">
-        <v>17.66514856859109</v>
+        <v>18.74593662968434</v>
       </c>
       <c r="E157">
-        <v>17.71622042633782</v>
+        <v>17.57597078731956</v>
       </c>
       <c r="F157">
-        <v>17.51936780847173</v>
+        <v>17.49009865057022</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>18.68063569905745</v>
+        <v>17.42187143100278</v>
       </c>
       <c r="C158">
-        <v>17.60574941592199</v>
+        <v>17.51588198111656</v>
       </c>
       <c r="D158">
-        <v>17.58562497351714</v>
+        <v>18.69349833720892</v>
       </c>
       <c r="E158">
-        <v>17.63700291042644</v>
+        <v>17.49443592109192</v>
       </c>
       <c r="F158">
-        <v>17.43639030744757</v>
+        <v>17.40921328398907</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>18.62827330889124</v>
+        <v>17.34291209888941</v>
       </c>
       <c r="C159">
-        <v>17.53044364350982</v>
+        <v>17.43974525996016</v>
       </c>
       <c r="D159">
-        <v>17.50616669827775</v>
+        <v>18.64113219282667</v>
       </c>
       <c r="E159">
-        <v>17.55790616468989</v>
+        <v>17.41300978082951</v>
       </c>
       <c r="F159">
-        <v>17.35357023842106</v>
+        <v>17.32847080625243</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>18.57587812913841</v>
+        <v>17.26411142948229</v>
       </c>
       <c r="C160">
-        <v>17.45524414974768</v>
+        <v>17.36376140940284</v>
       </c>
       <c r="D160">
-        <v>17.42677381478752</v>
+        <v>18.58883829263423</v>
       </c>
       <c r="E160">
-        <v>17.47893097960364</v>
+        <v>17.33169268333508</v>
       </c>
       <c r="F160">
-        <v>17.27090799972402</v>
+        <v>17.24787146989176</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>18.52345302393803</v>
+        <v>17.18546963022809</v>
       </c>
       <c r="C161">
-        <v>17.38015149780459</v>
+        <v>17.28793059622596</v>
       </c>
       <c r="D161">
-        <v>17.34744638858418</v>
+        <v>18.53661672653541</v>
       </c>
       <c r="E161">
-        <v>17.40007812138392</v>
+        <v>17.25048494680363</v>
       </c>
       <c r="F161">
-        <v>17.18840398813314</v>
+        <v>17.16741552854351</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>18.47100074120029</v>
+        <v>17.10698690938034</v>
       </c>
       <c r="C162">
-        <v>17.30516623708291</v>
+        <v>17.2122529883836</v>
       </c>
       <c r="D162">
-        <v>17.26818447868392</v>
+        <v>18.4844675809569</v>
       </c>
       <c r="E162">
-        <v>17.32134833910003</v>
+        <v>17.16938688887931</v>
       </c>
       <c r="F162">
-        <v>17.10605859901065</v>
+        <v>17.08710323762527</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>18.41852390062953</v>
+        <v>17.0286634763484</v>
       </c>
       <c r="C163">
-        <v>17.2302888957002</v>
+        <v>17.1367287543527</v>
       </c>
       <c r="D163">
-        <v>17.18898813725487</v>
+        <v>18.43239093348306</v>
       </c>
       <c r="E163">
-        <v>17.24274235446543</v>
+        <v>17.08839882855464</v>
       </c>
       <c r="F163">
-        <v>17.02387222979083</v>
+        <v>17.00693485339907</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>18.36602501243665</v>
+        <v>16.95049954158022</v>
       </c>
       <c r="C164">
-        <v>17.15551998236301</v>
+        <v>17.06135806320405</v>
       </c>
       <c r="D164">
-        <v>17.10985741181343</v>
+        <v>18.38038685749315</v>
       </c>
       <c r="E164">
-        <v>17.16426086959127</v>
+        <v>17.00752108606686</v>
       </c>
       <c r="F164">
-        <v>16.94184527793055</v>
+        <v>16.9269106337859</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>18.31350652426934</v>
+        <v>16.87249531659923</v>
       </c>
       <c r="C165">
-        <v>17.08085999507147</v>
+        <v>16.98614108507868</v>
       </c>
       <c r="D165">
-        <v>17.03079234327579</v>
+        <v>18.32845542219425</v>
       </c>
       <c r="E165">
-        <v>17.08590457082041</v>
+        <v>16.9267539818058</v>
       </c>
       <c r="F165">
-        <v>16.85997814190074</v>
+        <v>16.84703083858081</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>18.26097077831616</v>
+        <v>16.79465101420957</v>
       </c>
       <c r="C166">
-        <v>17.00630941368638</v>
+        <v>16.9110779907131</v>
       </c>
       <c r="D166">
-        <v>16.95179296857559</v>
+        <v>18.27659669065145</v>
       </c>
       <c r="E166">
-        <v>17.00767412238923</v>
+        <v>16.84609783850164</v>
       </c>
       <c r="F166">
-        <v>16.77827122082774</v>
+        <v>16.7672957285324</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>18.20841998311008</v>
+        <v>16.71696684823579</v>
       </c>
       <c r="C167">
-        <v>16.93186870136542</v>
+        <v>16.83616895180014</v>
       </c>
       <c r="D167">
-        <v>16.87285931953285</v>
+        <v>18.22481072292189</v>
       </c>
       <c r="E167">
-        <v>16.92957017268649</v>
+        <v>16.7655529798951</v>
       </c>
       <c r="F167">
-        <v>16.69672491500943</v>
+        <v>16.68770556656398</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>18.15585631351836</v>
+        <v>16.63944303388559</v>
       </c>
       <c r="C168">
-        <v>16.8575383130308</v>
+        <v>16.76141414091397</v>
       </c>
       <c r="D168">
-        <v>16.79399142330593</v>
+        <v>18.17309757537479</v>
       </c>
       <c r="E168">
-        <v>16.85159335626141</v>
+        <v>16.68511973129032</v>
       </c>
       <c r="F168">
-        <v>16.61533962553225</v>
+        <v>16.60826061728467</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>18.10328184837765</v>
+        <v>16.56207978754025</v>
       </c>
       <c r="C169">
-        <v>16.78331868825094</v>
+        <v>16.68681373146429</v>
       </c>
       <c r="D169">
-        <v>16.71518930354303</v>
+        <v>18.12145729679012</v>
       </c>
       <c r="E169">
-        <v>16.77374428907634</v>
+        <v>16.60479842014533</v>
       </c>
       <c r="F169">
-        <v>16.53411575524632</v>
+        <v>16.52896114681211</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>18.05069856976359</v>
+        <v>16.48487732682916</v>
       </c>
       <c r="C170">
-        <v>16.70921025261199</v>
+        <v>16.61236789787006</v>
       </c>
       <c r="D170">
-        <v>16.6364529793061</v>
+        <v>18.06988993732126</v>
       </c>
       <c r="E170">
-        <v>16.69602357446739</v>
+        <v>16.5245893754459</v>
       </c>
       <c r="F170">
-        <v>16.45305370839321</v>
+        <v>16.44980742341239</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>17.99810839075754</v>
+        <v>16.40783587075418</v>
       </c>
       <c r="C171">
-        <v>16.63521342464902</v>
+        <v>16.53807681543989</v>
       </c>
       <c r="D171">
-        <v>16.55778246669528</v>
+        <v>18.01839554349434</v>
       </c>
       <c r="E171">
-        <v>16.61843180404962</v>
+        <v>16.44449292860195</v>
       </c>
       <c r="F171">
-        <v>16.37215388923614</v>
+        <v>16.37079971717735</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>17.94551316274027</v>
+        <v>16.33095563954919</v>
       </c>
       <c r="C172">
-        <v>16.56132861033004</v>
+        <v>16.46394066045154</v>
       </c>
       <c r="D172">
-        <v>16.47917777807292</v>
+        <v>17.96697416000216</v>
       </c>
       <c r="E172">
-        <v>16.54096955331583</v>
+        <v>16.36450941310805</v>
       </c>
       <c r="F172">
-        <v>16.29141670491136</v>
+        <v>16.29193830008098</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>17.89291466094698</v>
+        <v>16.25423685485927</v>
       </c>
       <c r="C173">
-        <v>16.48755620426584</v>
+        <v>16.38995961021513</v>
       </c>
       <c r="D173">
-        <v>16.40063892264275</v>
+        <v>17.9156258263495</v>
       </c>
       <c r="E173">
-        <v>16.46363738784655</v>
+        <v>16.28463916462028</v>
       </c>
       <c r="F173">
-        <v>16.21084256378241</v>
+        <v>16.21322344624623</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>17.8403145821852</v>
+        <v>16.17767973964949</v>
       </c>
       <c r="C174">
-        <v>16.4138965947144</v>
+        <v>16.31613384291498</v>
       </c>
       <c r="D174">
-        <v>16.32216590679667</v>
+        <v>17.86435057115341</v>
       </c>
       <c r="E174">
-        <v>16.38643586319766</v>
+        <v>16.20488252151241</v>
       </c>
       <c r="F174">
-        <v>16.13043187464286</v>
+        <v>16.13465543178904</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>17.78771457778323</v>
+        <v>16.10128451826331</v>
       </c>
       <c r="C175">
-        <v>16.34035015979679</v>
+        <v>16.24246353784594</v>
       </c>
       <c r="D175">
-        <v>16.243758733438</v>
+        <v>17.81314843674633</v>
       </c>
       <c r="E175">
-        <v>16.30936552118912</v>
+        <v>16.12523982438838</v>
       </c>
       <c r="F175">
-        <v>16.05018504881707</v>
+        <v>16.05623453489092</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>17.73511623489451</v>
+        <v>16.0250514164471</v>
       </c>
       <c r="C176">
-        <v>16.26691726838398</v>
+        <v>16.16894887526823</v>
       </c>
       <c r="D176">
-        <v>16.16541740379919</v>
+        <v>17.76201945878377</v>
       </c>
       <c r="E176">
-        <v>16.23242689577543</v>
+        <v>16.0457114166148</v>
       </c>
       <c r="F176">
-        <v>15.9701024990664</v>
+        <v>15.97796103600199</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>17.68252106825867</v>
+        <v>15.94898066127918</v>
       </c>
       <c r="C177">
-        <v>16.19359828394235</v>
+        <v>16.0955900364177</v>
       </c>
       <c r="D177">
-        <v>16.08714191675017</v>
+        <v>17.71096367241639</v>
       </c>
       <c r="E177">
-        <v>16.15562051219948</v>
+        <v>15.96629764432837</v>
       </c>
       <c r="F177">
-        <v>15.89018463939472</v>
+        <v>15.89983521763305</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>17.62993054978742</v>
+        <v>15.87307248135219</v>
       </c>
       <c r="C178">
-        <v>16.12039356164169</v>
+        <v>16.02238720362087</v>
       </c>
       <c r="D178">
-        <v>16.00893226789809</v>
+        <v>17.65998109994954</v>
       </c>
       <c r="E178">
-        <v>16.07894688438221</v>
+        <v>15.88699885621268</v>
       </c>
       <c r="F178">
-        <v>15.8104318857494</v>
+        <v>15.82185736453927</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>17.57734610003402</v>
+        <v>15.79732710669539</v>
       </c>
       <c r="C179">
-        <v>16.04730344895292</v>
+        <v>15.94934056017884</v>
       </c>
       <c r="D179">
-        <v>15.93078845049199</v>
+        <v>17.60907176384826</v>
       </c>
       <c r="E179">
-        <v>16.00240651988744</v>
+        <v>15.80781540407838</v>
       </c>
       <c r="F179">
-        <v>15.73084465577261</v>
+        <v>15.74402776381404</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>17.52476908215765</v>
+        <v>15.72174476867422</v>
       </c>
       <c r="C180">
-        <v>15.97432828908225</v>
+        <v>15.87645029045351</v>
       </c>
       <c r="D180">
-        <v>15.85271045762469</v>
+        <v>17.55823569767874</v>
       </c>
       <c r="E180">
-        <v>15.92599991878127</v>
+        <v>15.72874764256528</v>
       </c>
       <c r="F180">
-        <v>15.65142336880411</v>
+        <v>15.66634670468869</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>17.47220080262746</v>
+        <v>15.64632570006998</v>
       </c>
       <c r="C181">
-        <v>15.90146841834627</v>
+        <v>15.80371657985135</v>
       </c>
       <c r="D181">
-        <v>15.77469828030991</v>
+        <v>17.50747292831464</v>
       </c>
       <c r="E181">
-        <v>15.84972757183967</v>
+        <v>15.64979592932487</v>
       </c>
       <c r="F181">
-        <v>15.57216844601407</v>
+        <v>15.58881447881057</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>17.41964253695591</v>
+        <v>15.57107013532426</v>
       </c>
       <c r="C182">
-        <v>15.82872416663148</v>
+        <v>15.73113961479875</v>
       </c>
       <c r="D182">
-        <v>15.69675190475277</v>
+        <v>17.4567834822454</v>
       </c>
       <c r="E182">
-        <v>15.77358996479084</v>
+        <v>15.57096062521532</v>
       </c>
       <c r="F182">
-        <v>15.49308031042626</v>
+        <v>15.51143138017533</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>17.36709551231922</v>
+        <v>15.49597831031743</v>
       </c>
       <c r="C183">
-        <v>15.75609586051545</v>
+        <v>15.65871958279975</v>
       </c>
       <c r="D183">
-        <v>15.61887131823399</v>
+        <v>17.40616736978801</v>
       </c>
       <c r="E183">
-        <v>15.69758757702325</v>
+        <v>15.49224209414812</v>
       </c>
       <c r="F183">
-        <v>15.41415938680979</v>
+        <v>15.4341977050703</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>17.31456089512628</v>
+        <v>15.42105046208621</v>
       </c>
       <c r="C184">
-        <v>15.6835838209097</v>
+        <v>15.58645667237331</v>
       </c>
       <c r="D184">
-        <v>15.54105650671678</v>
+        <v>17.35562461525006</v>
       </c>
       <c r="E184">
-        <v>15.62172088014297</v>
+        <v>15.41364070339533</v>
       </c>
       <c r="F184">
-        <v>15.33540610190399</v>
+        <v>15.35711375226967</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>17.26203983027981</v>
+        <v>15.34628682940644</v>
       </c>
       <c r="C185">
-        <v>15.61118836347467</v>
+        <v>15.51435107309712</v>
       </c>
       <c r="D185">
-        <v>15.46330745431016</v>
+        <v>17.30515524036752</v>
       </c>
       <c r="E185">
-        <v>15.54599034196827</v>
+        <v>15.33515682348076</v>
       </c>
       <c r="F185">
-        <v>15.25682088441791</v>
+        <v>15.28017982295625</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>17.20953341830143</v>
+        <v>15.27168765257827</v>
       </c>
       <c r="C186">
-        <v>15.53890980122099</v>
+        <v>15.44240297564221</v>
       </c>
       <c r="D186">
-        <v>15.38562414109146</v>
+        <v>17.25475926435275</v>
       </c>
       <c r="E186">
-        <v>15.47039642496306</v>
+        <v>15.25679082823926</v>
       </c>
       <c r="F186">
-        <v>15.17840416476687</v>
+        <v>15.2033962207384</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>17.1570427163237</v>
+        <v>15.19725317334563</v>
       </c>
       <c r="C187">
-        <v>15.46674844261807</v>
+        <v>15.37061257174495</v>
       </c>
       <c r="D187">
-        <v>15.3080065491641</v>
+        <v>17.20443670503676</v>
       </c>
       <c r="E187">
-        <v>15.3949395850726</v>
+        <v>15.17854309512509</v>
       </c>
       <c r="F187">
-        <v>15.1001563753997</v>
+        <v>15.12676325175826</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>17.10456874396927</v>
+        <v>15.1229836346473</v>
       </c>
       <c r="C188">
-        <v>15.39470459195905</v>
+        <v>15.29898005409307</v>
       </c>
       <c r="D188">
-        <v>15.23045465843275</v>
+        <v>17.15418757370326</v>
       </c>
       <c r="E188">
-        <v>15.31962027547998</v>
+        <v>15.10041400511829</v>
       </c>
       <c r="F188">
-        <v>15.02207795082154</v>
+        <v>15.05028122464559</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>17.05211249341037</v>
+        <v>15.04887928126769</v>
       </c>
       <c r="C189">
-        <v>15.32277855140955</v>
+        <v>15.22750561647456</v>
       </c>
       <c r="D189">
-        <v>15.15296844723808</v>
+        <v>17.10401188862</v>
       </c>
       <c r="E189">
-        <v>15.24443894485692</v>
+        <v>15.0224039425853</v>
       </c>
       <c r="F189">
-        <v>14.94416932730109</v>
+        <v>14.97395045054768</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>16.99967492053903</v>
+        <v>14.97494035937782</v>
       </c>
       <c r="C190">
-        <v>15.25097061957497</v>
+        <v>15.15618945382774</v>
       </c>
       <c r="D190">
-        <v>15.07554789230259</v>
+        <v>17.0539096644703</v>
       </c>
       <c r="E190">
-        <v>15.16939603663341</v>
+        <v>14.94451329545232</v>
       </c>
       <c r="F190">
-        <v>14.86643094311593</v>
+        <v>14.89777124321031</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>16.94725694077539</v>
+        <v>14.90116711660498</v>
       </c>
       <c r="C191">
-        <v>15.17928109178525</v>
+        <v>15.08503176213136</v>
       </c>
       <c r="D191">
-        <v>14.99819297043894</v>
+        <v>17.00388091527546</v>
       </c>
       <c r="E191">
-        <v>15.09449199208635</v>
+        <v>14.86674245573872</v>
       </c>
       <c r="F191">
-        <v>14.78886323862366</v>
+        <v>14.8217439189258</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>16.89485944926086</v>
+        <v>14.82755980200294</v>
       </c>
       <c r="C192">
-        <v>15.10771026176992</v>
+        <v>15.01403273825517</v>
       </c>
       <c r="D192">
-        <v>14.92090365716265</v>
+        <v>16.95392565410356</v>
       </c>
       <c r="E192">
-        <v>15.01972724885564</v>
+        <v>14.78909181914645</v>
       </c>
       <c r="F192">
-        <v>14.71146665605948</v>
+        <v>14.74586879659202</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>16.84248330927587</v>
+        <v>14.75411866624416</v>
       </c>
       <c r="C193">
-        <v>15.03625842050704</v>
+        <v>14.94319258018385</v>
       </c>
       <c r="D193">
-        <v>14.84367992673785</v>
+        <v>16.90404389316445</v>
       </c>
       <c r="E193">
-        <v>14.94510224046469</v>
+        <v>14.71156178483471</v>
       </c>
       <c r="F193">
-        <v>14.63424163965632</v>
+        <v>14.67014619775832</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>16.79012935029387</v>
+        <v>14.68084396145951</v>
       </c>
       <c r="C194">
-        <v>14.9649258564333</v>
+        <v>14.87251148707009</v>
       </c>
       <c r="D194">
-        <v>14.7665217528281</v>
+        <v>16.85423564500296</v>
       </c>
       <c r="E194">
-        <v>14.87061739876926</v>
+        <v>14.63415275586705</v>
       </c>
       <c r="F194">
-        <v>14.55718863571012</v>
+        <v>14.59457644657826</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>16.7377983773516</v>
+        <v>14.60773594123919</v>
       </c>
       <c r="C195">
-        <v>14.89371285690974</v>
+        <v>14.80198965907065</v>
       </c>
       <c r="D195">
-        <v>14.68942910852512</v>
+        <v>16.80450092144578</v>
       </c>
       <c r="E195">
-        <v>14.79627315277645</v>
+        <v>14.55686513962745</v>
       </c>
       <c r="F195">
-        <v>14.48030809247392</v>
+        <v>14.519159869896</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>16.68549117241645</v>
+        <v>14.53479486068684</v>
       </c>
       <c r="C196">
-        <v>14.82261970721951</v>
+        <v>14.73162729725076</v>
       </c>
       <c r="D196">
-        <v>14.61240196617394</v>
+        <v>16.7548397340191</v>
       </c>
       <c r="E196">
-        <v>14.72206992831943</v>
+        <v>14.47969934734947</v>
       </c>
       <c r="F196">
-        <v>14.40360046021189</v>
+        <v>14.44389679724499</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>16.63320848996761</v>
+        <v>14.4620209764322</v>
       </c>
       <c r="C197">
-        <v>14.75164669073538</v>
+        <v>14.66142460376318</v>
       </c>
       <c r="D197">
-        <v>14.53544029681798</v>
+        <v>16.70525209126856</v>
       </c>
       <c r="E197">
-        <v>14.64800815002942</v>
+        <v>14.40265579398127</v>
       </c>
       <c r="F197">
-        <v>14.32706619124827</v>
+        <v>14.36878756080776</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>16.58095105518053</v>
+        <v>14.38941454659752</v>
       </c>
       <c r="C198">
-        <v>14.68079409021247</v>
+        <v>14.59138178188194</v>
       </c>
       <c r="D198">
-        <v>14.45854407167206</v>
+        <v>16.65573800347359</v>
       </c>
       <c r="E198">
-        <v>14.57408824037357</v>
+        <v>14.3257348986891</v>
       </c>
       <c r="F198">
-        <v>14.25070573988495</v>
+        <v>14.2938324955554</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>16.52871957792166</v>
+        <v>14.31697583071438</v>
       </c>
       <c r="C199">
-        <v>14.61006218691913</v>
+        <v>14.52149903587203</v>
       </c>
       <c r="D199">
-        <v>14.38171326120119</v>
+        <v>16.60629748174199</v>
       </c>
       <c r="E199">
-        <v>14.5003106194165</v>
+        <v>14.24893708495654</v>
       </c>
       <c r="F199">
-        <v>14.17451956243352</v>
+        <v>14.21903193919571</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>16.47651474410155</v>
+        <v>14.24470508990463</v>
       </c>
       <c r="C200">
-        <v>14.53945126078458</v>
+        <v>14.45177657095499</v>
       </c>
       <c r="D200">
-        <v>14.30494783520848</v>
+        <v>16.55693053633704</v>
       </c>
       <c r="E200">
-        <v>14.42667570647604</v>
+        <v>14.172262780371</v>
       </c>
       <c r="F200">
-        <v>14.09850811728641</v>
+        <v>14.14438623221341</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>16.42433721226167</v>
+        <v>14.1726025867623</v>
       </c>
       <c r="C201">
-        <v>14.46896159149659</v>
+        <v>14.38221459339793</v>
       </c>
       <c r="D201">
-        <v>14.22824776254141</v>
+        <v>16.50763717757796</v>
       </c>
       <c r="E201">
-        <v>14.35318391919232</v>
+        <v>14.09571241663939</v>
       </c>
       <c r="F201">
-        <v>14.02267186480511</v>
+        <v>14.06989571774715</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>16.37218762582029</v>
+        <v>14.10066858535567</v>
       </c>
       <c r="C202">
-        <v>14.39859345761279</v>
+        <v>14.31281331052552</v>
       </c>
       <c r="D202">
-        <v>14.15161301232689</v>
+        <v>16.45841741592966</v>
       </c>
       <c r="E202">
-        <v>14.27983567301405</v>
+        <v>14.01928642984787</v>
       </c>
       <c r="F202">
-        <v>13.94701126733934</v>
+        <v>13.99556074185999</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>16.32006660856527</v>
+        <v>14.02890335116057</v>
       </c>
       <c r="C203">
-        <v>14.32834713669449</v>
+        <v>14.24357293065358</v>
       </c>
       <c r="D203">
-        <v>14.07504355306213</v>
+        <v>16.40927126209257</v>
       </c>
       <c r="E203">
-        <v>14.20663138378693</v>
+        <v>13.94298526045807</v>
       </c>
       <c r="F203">
-        <v>13.87152678933034</v>
+        <v>13.92138165344025</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>16.26797476321122</v>
+        <v>13.95730715124263</v>
       </c>
       <c r="C204">
-        <v>14.25822290688877</v>
+        <v>14.17449366306551</v>
       </c>
       <c r="D204">
-        <v>13.99853935252934</v>
+        <v>16.36019872002109</v>
       </c>
       <c r="E204">
-        <v>14.13357146631544</v>
+        <v>13.86680935331205</v>
       </c>
       <c r="F204">
-        <v>13.79621889717887</v>
+        <v>13.84735880421132</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.21591267221281</v>
+        <v>13.88588025411392</v>
       </c>
       <c r="C205">
-        <v>14.18822104597905</v>
+        <v>14.10557571805904</v>
       </c>
       <c r="D205">
-        <v>13.92210037816626</v>
+        <v>16.31119979208838</v>
       </c>
       <c r="E205">
-        <v>14.06065633501296</v>
+        <v>13.79075915771509</v>
       </c>
       <c r="F205">
-        <v>13.7210880592527</v>
+        <v>13.77349254861936</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>16.16388090490441</v>
+        <v>13.8146229297182</v>
       </c>
       <c r="C206">
-        <v>14.11834183188385</v>
+        <v>14.03681930694907</v>
       </c>
       <c r="D206">
-        <v>13.8457265973813</v>
+        <v>16.26227449404689</v>
       </c>
       <c r="E206">
-        <v>13.98788640113416</v>
+        <v>13.71483512748229</v>
       </c>
       <c r="F206">
-        <v>13.64613474599116</v>
+        <v>13.69978324401339</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>16.11188001271406</v>
+        <v>13.74353544945077</v>
       </c>
       <c r="C207">
-        <v>14.04858553983117</v>
+        <v>13.96822464202988</v>
       </c>
       <c r="D207">
-        <v>13.76941797716311</v>
+        <v>16.2134228352276</v>
       </c>
       <c r="E207">
-        <v>13.91526207762632</v>
+        <v>13.63903772099658</v>
       </c>
       <c r="F207">
-        <v>13.57135942978612</v>
+        <v>13.62623125073811</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>16.05991052619116</v>
+        <v>13.67261808622909</v>
       </c>
       <c r="C208">
-        <v>13.97895244806548</v>
+        <v>13.89979193653018</v>
       </c>
       <c r="D208">
-        <v>13.69317448389093</v>
+        <v>16.1646448252367</v>
       </c>
       <c r="E208">
-        <v>13.84278377805997</v>
+        <v>13.56336740126314</v>
       </c>
       <c r="F208">
-        <v>13.49676258497938</v>
+        <v>13.55283693199363</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>16.00797296569602</v>
+        <v>13.60187111440754</v>
       </c>
       <c r="C209">
-        <v>13.90944283497868</v>
+        <v>13.83152140467157</v>
       </c>
       <c r="D209">
-        <v>13.6169960839985</v>
+        <v>16.11594047402696</v>
       </c>
       <c r="E209">
-        <v>13.77045191562205</v>
+        <v>13.48782463594908</v>
       </c>
       <c r="F209">
-        <v>13.42234468794709</v>
+        <v>13.47960065383146</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>15.95606783540391</v>
+        <v>13.53129480973122</v>
       </c>
       <c r="C210">
-        <v>13.84005697931928</v>
+        <v>13.7634132616704</v>
       </c>
       <c r="D210">
-        <v>13.54088274363983</v>
+        <v>16.06730979196922</v>
       </c>
       <c r="E210">
-        <v>13.69826690246164</v>
+        <v>13.41240989746361</v>
       </c>
       <c r="F210">
-        <v>13.34810621700393</v>
+        <v>13.40652278515082</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>15.90419562325144</v>
+        <v>13.46088944943436</v>
       </c>
       <c r="C211">
-        <v>13.7707951593105</v>
+        <v>13.69546772369216</v>
       </c>
       <c r="D211">
-        <v>13.46483442872441</v>
+        <v>16.01875278626718</v>
       </c>
       <c r="E211">
-        <v>13.626229147805</v>
+        <v>13.33712366299525</v>
       </c>
       <c r="F211">
-        <v>13.27404765238843</v>
+        <v>13.33360369796537</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.85235680325017</v>
+        <v>13.39065531219469</v>
       </c>
       <c r="C212">
-        <v>13.70165765142344</v>
+        <v>13.62768500779312</v>
       </c>
       <c r="D212">
-        <v>13.38885110481906</v>
+        <v>15.97026944799624</v>
       </c>
       <c r="E212">
-        <v>13.55433906656825</v>
+        <v>13.26196641456773</v>
       </c>
       <c r="F212">
-        <v>13.20016947633855</v>
+        <v>13.26084376718312</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>15.80055183837849</v>
+        <v>13.32059267811128</v>
       </c>
       <c r="C213">
-        <v>13.63264473728371</v>
+        <v>13.56006533199649</v>
       </c>
       <c r="D213">
-        <v>13.31293273753787</v>
+        <v>15.92185979795832</v>
       </c>
       <c r="E213">
-        <v>13.48259707219911</v>
+        <v>13.18693863905016</v>
       </c>
       <c r="F213">
-        <v>13.12647217300331</v>
+        <v>13.18824337066965</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>15.74878117787359</v>
+        <v>13.25070182864349</v>
       </c>
       <c r="C214">
-        <v>13.56375669776708</v>
+        <v>13.49260891529282</v>
       </c>
       <c r="D214">
-        <v>13.23707929229776</v>
+        <v>15.87352384480956</v>
       </c>
       <c r="E214">
-        <v>13.4110035788567</v>
+        <v>13.11204082829934</v>
       </c>
       <c r="F214">
-        <v>13.0529562284141</v>
+        <v>13.11580288916964</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>15.69704525566931</v>
+        <v>13.18098304674094</v>
       </c>
       <c r="C215">
-        <v>13.49499381482564</v>
+        <v>13.42531597758323</v>
       </c>
       <c r="D215">
-        <v>13.16129073432199</v>
+        <v>15.82526159740706</v>
       </c>
       <c r="E215">
-        <v>13.33955899739821</v>
+        <v>13.03727347914956</v>
       </c>
       <c r="F215">
-        <v>12.97962213057009</v>
+        <v>13.04352270656786</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>15.64534449763712</v>
+        <v>13.11143661673966</v>
       </c>
       <c r="C216">
-        <v>13.4263563684587</v>
+        <v>13.35818673962564</v>
       </c>
       <c r="D216">
-        <v>13.085567028688</v>
+        <v>15.77707306484691</v>
       </c>
       <c r="E216">
-        <v>13.26826374308978</v>
+        <v>12.96263709348156</v>
       </c>
       <c r="F216">
-        <v>12.90647036934222</v>
+        <v>12.97140320971123</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>15.59367931736057</v>
+        <v>13.04206282435461</v>
       </c>
       <c r="C217">
-        <v>13.35784464216703</v>
+        <v>13.29122142310784</v>
       </c>
       <c r="D217">
-        <v>13.0099081405294</v>
+        <v>15.72895825650219</v>
       </c>
       <c r="E217">
-        <v>13.19711823162099</v>
+        <v>12.88813217827322</v>
       </c>
       <c r="F217">
-        <v>12.83350143643281</v>
+        <v>12.89944478847426</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>15.54205011539612</v>
+        <v>12.97286195665566</v>
       </c>
       <c r="C218">
-        <v>13.28945892087062</v>
+        <v>13.22442025064442</v>
       </c>
       <c r="D218">
-        <v>12.93431403487919</v>
+        <v>15.68091718206102</v>
       </c>
       <c r="E218">
-        <v>13.12612287916311</v>
+        <v>12.81375924565876</v>
       </c>
       <c r="F218">
-        <v>12.76071582547299</v>
+        <v>12.82764783567224</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>15.49045728287265</v>
+        <v>12.90383430215476</v>
       </c>
       <c r="C219">
-        <v>13.22119949023909</v>
+        <v>13.15778344572171</v>
       </c>
       <c r="D219">
-        <v>12.85878467656558</v>
+        <v>15.63294983662271</v>
       </c>
       <c r="E219">
-        <v>13.05527810207148</v>
+        <v>12.73951881297783</v>
       </c>
       <c r="F219">
-        <v>12.68811403191864</v>
+        <v>12.7560127472765</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>15.43890120160656</v>
+        <v>12.83498015071685</v>
       </c>
       <c r="C220">
-        <v>13.15306663691019</v>
+        <v>13.09131123265099</v>
       </c>
       <c r="D220">
-        <v>12.78332003049787</v>
+        <v>15.58505623523842</v>
       </c>
       <c r="E220">
-        <v>12.98458431685208</v>
+        <v>12.6654114028387</v>
       </c>
       <c r="F220">
-        <v>12.61569655300265</v>
+        <v>12.68453992228859</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>15.38738224276504</v>
+        <v>12.76629979351779</v>
       </c>
       <c r="C221">
-        <v>13.08506064762885</v>
+        <v>13.02500383662981</v>
       </c>
       <c r="D221">
-        <v>12.70792006159943</v>
+        <v>15.53723638717227</v>
       </c>
       <c r="E221">
-        <v>12.91404194296486</v>
+        <v>12.59143754321099</v>
       </c>
       <c r="F221">
-        <v>12.54346388783499</v>
+        <v>12.61322976278475</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>15.33590076653469</v>
+        <v>12.69779352309872</v>
       </c>
       <c r="C222">
-        <v>13.01718181252808</v>
+        <v>12.95886148373538</v>
       </c>
       <c r="D222">
-        <v>12.63258473476838</v>
+        <v>15.48949030079327</v>
       </c>
       <c r="E222">
-        <v>12.84365140029037</v>
+        <v>12.51759776738133</v>
       </c>
       <c r="F222">
-        <v>12.4714165372975</v>
+        <v>12.5420826738443</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>15.28445712637096</v>
+        <v>12.62946163337027</v>
       </c>
       <c r="C223">
-        <v>12.94943042253716</v>
+        <v>12.8928844008763</v>
       </c>
       <c r="D223">
-        <v>12.55731401476131</v>
+        <v>15.44181798457993</v>
       </c>
       <c r="E223">
-        <v>12.77341310998879</v>
+        <v>12.44389261408311</v>
       </c>
       <c r="F223">
-        <v>12.39955500398992</v>
+        <v>12.47109906369297</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>15.23305166643613</v>
+        <v>12.56130441956008</v>
       </c>
       <c r="C224">
-        <v>12.88180677020062</v>
+        <v>12.82707281574367</v>
       </c>
       <c r="D224">
-        <v>12.48210786654673</v>
+        <v>15.39421944713561</v>
       </c>
       <c r="E224">
-        <v>12.70332749335107</v>
+        <v>12.37032262755014</v>
       </c>
       <c r="F224">
-        <v>12.32787979232788</v>
+        <v>12.40027934368266</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>15.18168472051879</v>
+        <v>12.49332217812431</v>
       </c>
       <c r="C225">
-        <v>12.81431114914009</v>
+        <v>12.76142695686981</v>
       </c>
       <c r="D225">
-        <v>12.40696625508158</v>
+        <v>15.34669469720382</v>
       </c>
       <c r="E225">
-        <v>12.63339497440023</v>
+        <v>12.29688835761035</v>
       </c>
       <c r="F225">
-        <v>12.2563914084392</v>
+        <v>12.32962392826657</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>15.13035661612146</v>
+        <v>12.42551520691215</v>
       </c>
       <c r="C226">
-        <v>12.74694385507052</v>
+        <v>12.69594705361895</v>
       </c>
       <c r="D226">
-        <v>12.3318891453544</v>
+        <v>15.29924374111301</v>
       </c>
       <c r="E226">
-        <v>12.56361597823948</v>
+        <v>12.22359035961746</v>
       </c>
       <c r="F226">
-        <v>12.18509036010138</v>
+        <v>12.25913323496052</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>15.0790676728321</v>
+        <v>12.35788380504065</v>
       </c>
       <c r="C227">
-        <v>12.67970518571526</v>
+        <v>12.63063333614023</v>
       </c>
       <c r="D227">
-        <v>12.25687650237695</v>
+        <v>15.25186658725445</v>
       </c>
       <c r="E227">
-        <v>12.49399093150446</v>
+        <v>12.15042919460646</v>
       </c>
       <c r="F227">
-        <v>12.11397715684157</v>
+        <v>12.18880768439776</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>15.02781820199016</v>
+        <v>12.29042827289018</v>
       </c>
       <c r="C228">
-        <v>12.61259544053566</v>
+        <v>12.56548603531108</v>
       </c>
       <c r="D228">
-        <v>12.18192829132671</v>
+        <v>15.20456324524588</v>
       </c>
       <c r="E228">
-        <v>12.42452026186821</v>
+        <v>12.07740542934584</v>
       </c>
       <c r="F228">
-        <v>12.04305230983097</v>
+        <v>12.11864770043675</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.97660850709272</v>
+        <v>12.22314891204252</v>
       </c>
       <c r="C229">
-        <v>12.54561492082799</v>
+        <v>12.50050538280316</v>
       </c>
       <c r="D229">
-        <v>12.10704447745317</v>
+        <v>15.15733372380827</v>
       </c>
       <c r="E229">
-        <v>12.35520439848097</v>
+        <v>12.00451963641181</v>
       </c>
       <c r="F229">
-        <v>11.9723163318121</v>
+        <v>12.04865371005307</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.92543888604205</v>
+        <v>12.15604602541073</v>
       </c>
       <c r="C230">
-        <v>12.47876392914486</v>
+        <v>12.43569161107022</v>
       </c>
       <c r="D230">
-        <v>12.03222502608021</v>
+        <v>15.11017803177904</v>
       </c>
       <c r="E230">
-        <v>12.28604377303643</v>
+        <v>11.93177239415082</v>
       </c>
       <c r="F230">
-        <v>11.90176973720549</v>
+        <v>11.9788261433477</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.87430962963794</v>
+        <v>12.08911991711774</v>
       </c>
       <c r="C231">
-        <v>12.41204277114894</v>
+        <v>12.37104495329715</v>
       </c>
       <c r="D231">
-        <v>11.95746990266829</v>
+        <v>15.06309617812162</v>
       </c>
       <c r="E231">
-        <v>12.21703881865845</v>
+        <v>11.85916428681788</v>
       </c>
       <c r="F231">
-        <v>11.8314130419988</v>
+        <v>11.90916543350114</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.82322102057379</v>
+        <v>12.02237089246839</v>
       </c>
       <c r="C232">
-        <v>12.34545175426011</v>
+        <v>12.30656564333723</v>
       </c>
       <c r="D232">
-        <v>11.88277907283741</v>
+        <v>15.01608817193492</v>
       </c>
       <c r="E232">
-        <v>12.14818997027307</v>
+        <v>11.78669590463668</v>
       </c>
       <c r="F232">
-        <v>11.76124676366416</v>
+        <v>11.83967201700251</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.77217333715396</v>
+        <v>11.95579925795618</v>
       </c>
       <c r="C233">
-        <v>12.27899118810921</v>
+        <v>12.24225391578558</v>
       </c>
       <c r="D233">
-        <v>11.80815250234972</v>
+        <v>14.96915402262159</v>
       </c>
       <c r="E233">
-        <v>12.07949766320187</v>
+        <v>11.71436784385611</v>
       </c>
       <c r="F233">
-        <v>11.69127142127202</v>
+        <v>11.77034633347138</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.72116685122548</v>
+        <v>11.88940532131597</v>
       </c>
       <c r="C234">
-        <v>12.21266138391553</v>
+        <v>12.17811000596385</v>
       </c>
       <c r="D234">
-        <v>11.73359015702674</v>
+        <v>14.92229373983116</v>
       </c>
       <c r="E234">
-        <v>12.01096233650311</v>
+        <v>11.64218070674398</v>
       </c>
       <c r="F234">
-        <v>11.62148753537465</v>
+        <v>11.70118882570689</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.6702018273674</v>
+        <v>11.82318939143718</v>
       </c>
       <c r="C235">
-        <v>12.14646265541721</v>
+        <v>12.11413414986525</v>
       </c>
       <c r="D235">
-        <v>11.65909200298963</v>
+        <v>14.87550733301396</v>
       </c>
       <c r="E235">
-        <v>11.94258443056701</v>
+        <v>11.57013510170658</v>
       </c>
       <c r="F235">
-        <v>11.55189562791456</v>
+        <v>11.63219993955509</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.61927852498793</v>
+        <v>11.75715177820391</v>
       </c>
       <c r="C236">
-        <v>12.08039531911162</v>
+        <v>12.05032658408889</v>
       </c>
       <c r="D236">
-        <v>11.58465800651544</v>
+        <v>14.82879481198398</v>
       </c>
       <c r="E236">
-        <v>11.87436438781545</v>
+        <v>11.49823164336087</v>
       </c>
       <c r="F236">
-        <v>11.4824962223435</v>
+        <v>11.56338012423391</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.56839719953773</v>
+        <v>11.69129279278091</v>
       </c>
       <c r="C237">
-        <v>12.01445969365945</v>
+        <v>11.98668754591655</v>
       </c>
       <c r="D237">
-        <v>11.51028813408836</v>
+        <v>14.78215618674907</v>
       </c>
       <c r="E237">
-        <v>11.80630265202351</v>
+        <v>11.42647095257375</v>
       </c>
       <c r="F237">
-        <v>11.41328984349969</v>
+        <v>11.49472983210271</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.51755810104062</v>
+        <v>11.6256127474657</v>
       </c>
       <c r="C238">
-        <v>11.94865610011343</v>
+        <v>11.92321727329393</v>
       </c>
       <c r="D238">
-        <v>11.43598235241573</v>
+        <v>14.73559146752104</v>
       </c>
       <c r="E238">
-        <v>11.73839966917899</v>
+        <v>11.35485365647662</v>
       </c>
       <c r="F238">
-        <v>11.34427701751664</v>
+        <v>11.42624951873086</v>
       </c>
     </row>
   </sheetData>
